--- a/d3/cnr_d3.xlsx
+++ b/d3/cnr_d3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m176320/Documents/GitHub/sunyang_site/sunyangfu.github.io/d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E0869-4194-0448-B73B-E983A620B211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26022135-232C-AC4C-8D27-B7022288B338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="1" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="3" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="color" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="pv" sheetId="7" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="500">
   <si>
     <t>Method Type</t>
   </si>
@@ -1151,9 +1151,6 @@
     <t>Disease_study_area</t>
   </si>
   <si>
-    <t>Symptoms__signs__and_illdefined_conditions</t>
-  </si>
-  <si>
     <t>Mental_disorders</t>
   </si>
   <si>
@@ -1196,9 +1193,6 @@
     <t>Diseases_of_the_respiratory_system</t>
   </si>
   <si>
-    <t>endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders</t>
-  </si>
-  <si>
     <t>Social_Behavior</t>
   </si>
   <si>
@@ -1280,9 +1274,6 @@
     <t>Clinical_workflow_optimization-Measurement_value_extraction-Radiology_report-ML</t>
   </si>
   <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Claims_data-ML</t>
-  </si>
-  <si>
     <t>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Deep</t>
   </si>
   <si>
@@ -1373,18 +1364,6 @@
     <t>Disease_study_area-Diseases_of_the_respiratory_system-Clinical_notes-ML</t>
   </si>
   <si>
-    <t>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Dictionary</t>
-  </si>
-  <si>
-    <t>Disease_study_area-endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Hybrid</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Rule</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Radiology_report-Hybrid</t>
-  </si>
-  <si>
     <t>Disease_study_area-Infectious_and_parasitic_diseases-Clinical_notes-Hybrid</t>
   </si>
   <si>
@@ -1427,39 +1406,6 @@
     <t>Disease_study_area-Neoplasms-Radiology_report-ML</t>
   </si>
   <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Deep</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Rule</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Hybrid</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-ML</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Rule</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-Deep</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-ML</t>
-  </si>
-  <si>
-    <t>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Radiology_report-ML</t>
-  </si>
-  <si>
     <t>Drugrelated_studies-Adverse_drug_reaction-Clinical_notes-ML</t>
   </si>
   <si>
@@ -1505,15 +1451,9 @@
     <t>Drugrelated_studies-Medication_extraction-Radiology_report-Hybrid</t>
   </si>
   <si>
-    <t>Drugrelated_studies-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary</t>
-  </si>
-  <si>
     <t>Social_determinants_of_health-Diseases_of_the_respiratory_system-Clinical_notes-Hybrid</t>
   </si>
   <si>
-    <t>Social_determinants_of_health-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Discharge_summaries-Rule</t>
-  </si>
-  <si>
     <t>Social_determinants_of_health-Social_Behavior-Clinical_notes-Hybrid</t>
   </si>
   <si>
@@ -1523,13 +1463,79 @@
     <t>social_determinants_of_health-Social_Behavior-Radiology_report-ML</t>
   </si>
   <si>
-    <t>Social_determinants_of_health-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid</t>
-  </si>
-  <si>
     <t>Drug_related_studies</t>
   </si>
   <si>
     <t>Symptoms__signs__and_ill_defined_conditions</t>
+  </si>
+  <si>
+    <t>Symptoms_signs_and_illdefined_conditions</t>
+  </si>
+  <si>
+    <t>Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders</t>
+  </si>
+  <si>
+    <t>endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Deep</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Psychiatric_notes-Deep</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Dictionary</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Dictionary</t>
+  </si>
+  <si>
+    <t>Drugrelated_studies-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Dictionary</t>
+  </si>
+  <si>
+    <t>Social_determinants_of_health-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid</t>
+  </si>
+  <si>
+    <t>Disease_study_area-endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Hybrid</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-Hybrid</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Radiology_report-Hybrid</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-ML</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-ML</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Psychiatric_notes-ML</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Radiology_report-ML</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Rule</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Rule</t>
+  </si>
+  <si>
+    <t>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-Rule</t>
+  </si>
+  <si>
+    <t>Social_determinants_of_health-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Discharge_summaries-Rule</t>
+  </si>
+  <si>
+    <t>Patient_management</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Claims_data-ML</t>
   </si>
 </sst>
 </file>
@@ -1645,25 +1651,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fu, Sunyang" refreshedDate="43665.880197916667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="156" xr:uid="{2553EBFE-2A76-BF42-A645-8DFE29F6A614}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fu, Sunyang" refreshedDate="43665.886045486113" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="156" xr:uid="{2553EBFE-2A76-BF42-A645-8DFE29F6A614}">
   <cacheSource type="worksheet">
     <worksheetSource ref="F2:F158" sheet="Sheet2"/>
   </cacheSource>
   <cacheFields count="1">
     <cacheField name="Clinical_workflow_optimization-Data_privacy-Clinical_notes-Deep" numFmtId="0">
-      <sharedItems count="95">
+      <sharedItems count="114">
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Clinical_notes-Deep"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Deep"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Deep"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Deep"/>
         <s v="Disease_study_area-Mental_disorders-Psychiatric_notes-Deep"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-Deep"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Psychiatric_notes-Deep"/>
         <s v="Clinical_workflow_optimization-Data_privacy-Clinical_notes-Dictionary"/>
-        <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Dictionary"/>
+        <s v="Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Dictionary"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Dictionary"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Clinical_notes-Dictionary"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Dictionary"/>
         <s v="Drugrelated_studies-Medication_extraction-Clinical_notes-Dictionary"/>
-        <s v="Drugrelated_studies-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary"/>
+        <s v="Drugrelated_studies-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Dictionary"/>
         <s v="Drugrelated_studies-Adverse_drug_reaction-Microbiology_reports-Dictionary"/>
         <s v="Clinical_workflow_optimization-Quality_control-Operative_report-Dictionary"/>
         <s v="Disease_study_area-neoplasms-Pathology_report-Dictionary"/>
@@ -1673,9 +1679,9 @@
         <s v="Disease_study_area-Neoplasms-Clinical_notes-Hybrid"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Clinical_notes-Hybrid"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Hybrid"/>
-        <s v="Social_determinants_of_health-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid"/>
-        <s v="Disease_study_area-endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Hybrid"/>
+        <s v="Social_determinants_of_health-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid"/>
+        <s v="Disease_study_area-endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Hybrid"/>
         <s v="Drugrelated_studies-Medication_extraction-Clinical_notes-Hybrid"/>
         <s v="Disease_study_area-Diseases_of_the_respiratory_system-Clinical_notes-Hybrid"/>
         <s v="Social_determinants_of_health-Social_Behavior-Clinical_notes-Hybrid"/>
@@ -1686,18 +1692,18 @@
         <s v="Drugrelated_studies-Medication_extraction-Discharge_summaries-Hybrid"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Discharge_summaries-Hybrid"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Discharge_summaries-Hybrid"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Hybrid"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-Hybrid"/>
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Discharge_summaries-Hybrid"/>
         <s v="Disease_study_area-neoplasms-Pathology_report-Hybrid"/>
         <s v="Clinical_workflow_optimization-Data_privacy-Psychiatric_notes-Hybrid"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Radiology_report-Hybrid"/>
         <s v="Disease_study_area-Diseases_of_the_nervous_system-Radiology_report-Hybrid"/>
-        <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Radiology_report-Hybrid"/>
+        <s v="Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Radiology_report-Hybrid"/>
         <s v="Disease_study_area-Neoplasms-Radiology_report-Hybrid"/>
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Radiology_report-Hybrid"/>
         <s v="Drugrelated_studies-Medication_extraction-Radiology_report-Hybrid"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Claims_data-ML"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Claims_data-ML"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-ML"/>
         <s v="Drugrelated_studies-Diseases_of_the_musculoskeletal_system_and_connective_tissue-Clinical_notes-ML"/>
         <s v="Disease_study_area-Diseases_of_the_respiratory_system-Clinical_notes-ML"/>
         <s v="Disease_study_area-Neoplasms-Clinical_notes-ML"/>
@@ -1710,15 +1716,15 @@
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-ML"/>
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Discharge_summaries-ML"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Discharge_summaries-ML"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-ML"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-ML"/>
         <s v="Drugrelated_studies-Adverse_drug_reaction-Discharge_summaries-ML"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Echocardiogram_reports-ML"/>
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Pathology_report-ML"/>
         <s v="Disease_study_area-Neoplasms-Pathology_report-ML"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Pathology_report-ML"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-ML"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Psychiatric_notes-ML"/>
         <s v="Disease_study_area-Diseases_of_the_digestive_system-Radiology_report-ML"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Radiology_report-ML"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Radiology_report-ML"/>
         <s v="Clinical_workflow_optimization-Quality_control-Radiology_report-ML"/>
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Radiology_report-ML"/>
         <s v="Disease_study_area-Neoplasms-Radiology_report-ML"/>
@@ -1731,11 +1737,11 @@
         <s v="Drugrelated_studies-Medication_extraction-Clinical_notes-Rule"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Clinical_notes-Rule"/>
         <s v="Disease_study_area-Diseases_of_the_digestive_system-Clinical_notes-Rule"/>
-        <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Rule"/>
+        <s v="Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Rule"/>
         <s v="Drugrelated_studies-Diseases_of_the_digestive_system-Clinical_notes-Rule"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Rule"/>
         <s v="Disease_study_area-neoplasms-Clinical_notes-Rule"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Rule"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Rule"/>
         <s v="Drugrelated_studies-Adverse_drug_reaction-Clinical_notes-Rule"/>
         <s v="Drugrelated_studies-Dosage_extraction-Clinical_notes-Rule"/>
         <s v="Social_determinants_of_health-Social_Behavior-Clinical_notes-Rule"/>
@@ -1744,9 +1750,28 @@
         <s v="Disease_study_area-Diseases_of_the_musculoskeletal_system_and_connective_tissue-Clinical_notes-Rule"/>
         <s v="Clinical_workflow_optimization-Quality_control-Clinical_notes-Rule"/>
         <s v="Disease_study_area-Diseases_of_the_nervous_system-Discharge_summaries-Rule"/>
-        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Rule"/>
+        <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-Rule"/>
         <s v="Drugrelated_studies-Medication_extraction-Discharge_summaries-Rule"/>
-        <s v="Social_determinants_of_health-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Discharge_summaries-Rule"/>
+        <s v="Social_determinants_of_health-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Discharge_summaries-Rule"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-ML" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-ML" u="1"/>
+        <s v="Drugrelated_studies-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Hybrid" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Radiology_report-ML" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Rule" u="1"/>
+        <s v="Disease_study_area-endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Hybrid" u="1"/>
+        <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Rule" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Deep" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Rule" u="1"/>
+        <s v="Social_determinants_of_health-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid" u="1"/>
+        <s v="Social_determinants_of_health-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Discharge_summaries-Rule" u="1"/>
+        <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Radiology_report-Hybrid" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Claims_data-ML" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-Deep" u="1"/>
+        <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary" u="1"/>
+        <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Dictionary" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2232,11 +2257,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B459A21B-5C18-784D-B8A4-4336C0F266EA}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7C028B8-DE54-6C44-9733-157687C63C37}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B99" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="96">
+      <items count="115">
         <item x="5"/>
         <item x="28"/>
         <item x="53"/>
@@ -2250,7 +2275,7 @@
         <item x="61"/>
         <item x="42"/>
         <item x="68"/>
-        <item x="44"/>
+        <item m="1" x="110"/>
         <item x="1"/>
         <item x="7"/>
         <item x="20"/>
@@ -2281,6 +2306,10 @@
         <item x="39"/>
         <item x="25"/>
         <item x="47"/>
+        <item m="1" x="113"/>
+        <item m="1" x="102"/>
+        <item m="1" x="103"/>
+        <item m="1" x="109"/>
         <item x="6"/>
         <item x="23"/>
         <item x="79"/>
@@ -2299,6 +2328,17 @@
         <item x="62"/>
         <item x="41"/>
         <item x="69"/>
+        <item m="1" x="104"/>
+        <item m="1" x="112"/>
+        <item m="1" x="105"/>
+        <item m="1" x="99"/>
+        <item m="1" x="101"/>
+        <item m="1" x="98"/>
+        <item m="1" x="95"/>
+        <item m="1" x="106"/>
+        <item m="1" x="111"/>
+        <item m="1" x="96"/>
+        <item m="1" x="100"/>
         <item x="2"/>
         <item x="9"/>
         <item x="22"/>
@@ -2325,13 +2365,17 @@
         <item x="31"/>
         <item x="93"/>
         <item x="43"/>
+        <item m="1" x="97"/>
         <item x="11"/>
         <item x="17"/>
+        <item m="1" x="108"/>
         <item x="94"/>
         <item x="26"/>
         <item x="86"/>
         <item x="70"/>
+        <item m="1" x="107"/>
         <item x="21"/>
+        <item x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2378,9 +2422,6 @@
     </i>
     <i>
       <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
     </i>
     <i>
       <x v="14"/>
@@ -2473,18 +2514,6 @@
       <x v="43"/>
     </i>
     <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
       <x v="48"/>
     </i>
     <i>
@@ -2539,39 +2568,6 @@
       <x v="65"/>
     </i>
     <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
       <x v="77"/>
     </i>
     <i>
@@ -2624,6 +2620,54 @@
     </i>
     <i>
       <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
     </i>
     <i t="grand">
       <x/>
@@ -3174,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F923B06-6A46-AE4D-AA45-C7438FDA473B}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3296,7 +3340,7 @@
         <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -3317,7 +3361,7 @@
         <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -3443,7 +3487,7 @@
         <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -3485,7 +3529,7 @@
         <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -3506,7 +3550,7 @@
         <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -3527,7 +3571,7 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C18" t="s">
         <v>133</v>
@@ -3548,7 +3592,7 @@
         <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" t="s">
         <v>133</v>
@@ -3569,7 +3613,7 @@
         <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
@@ -3590,7 +3634,7 @@
         <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C21" t="s">
         <v>133</v>
@@ -3611,7 +3655,7 @@
         <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C22" t="s">
         <v>133</v>
@@ -3632,7 +3676,7 @@
         <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C23" t="s">
         <v>133</v>
@@ -3653,7 +3697,7 @@
         <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C24" t="s">
         <v>133</v>
@@ -3674,7 +3718,7 @@
         <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C25" t="s">
         <v>133</v>
@@ -3695,7 +3739,7 @@
         <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C26" t="s">
         <v>133</v>
@@ -3737,7 +3781,7 @@
         <v>132</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C28" t="s">
         <v>133</v>
@@ -3758,7 +3802,7 @@
         <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C29" t="s">
         <v>133</v>
@@ -3800,7 +3844,7 @@
         <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C31" t="s">
         <v>133</v>
@@ -3821,7 +3865,7 @@
         <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C32" t="s">
         <v>133</v>
@@ -3842,7 +3886,7 @@
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -3905,7 +3949,7 @@
         <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" t="s">
         <v>133</v>
@@ -3926,7 +3970,7 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C37" t="s">
         <v>133</v>
@@ -3968,7 +4012,7 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C39" t="s">
         <v>133</v>
@@ -3989,7 +4033,7 @@
         <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C40" t="s">
         <v>133</v>
@@ -4010,7 +4054,7 @@
         <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C41" t="s">
         <v>133</v>
@@ -4052,7 +4096,7 @@
         <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C43" t="s">
         <v>133</v>
@@ -4073,7 +4117,7 @@
         <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
         <v>133</v>
@@ -4094,7 +4138,7 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="C45" t="s">
         <v>133</v>
@@ -5513,16 +5557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB73709-B7E5-E54A-AE75-5DFBD8D52676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746D962D-FB17-9D43-8C96-B85AFCB566CB}">
   <dimension ref="A3:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B98"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="116" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="113.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5531,12 +5575,12 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -5544,7 +5588,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -5552,7 +5596,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -5560,7 +5604,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -5568,7 +5612,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -5576,7 +5620,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
@@ -5584,7 +5628,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -5592,7 +5636,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -5600,7 +5644,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -5608,7 +5652,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -5616,7 +5660,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -5624,7 +5668,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -5632,7 +5676,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -5640,7 +5684,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -5648,7 +5692,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -5656,55 +5700,55 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B21" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B22" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -5712,7 +5756,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -5720,7 +5764,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -5728,7 +5772,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -5736,7 +5780,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -5744,39 +5788,39 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B30" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B31" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B32" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B33" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -5784,7 +5828,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -5792,7 +5836,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -5800,7 +5844,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -5808,7 +5852,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -5816,7 +5860,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -5824,23 +5868,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -5848,7 +5892,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -5856,7 +5900,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -5864,7 +5908,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -5872,7 +5916,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -5880,7 +5924,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -5888,7 +5932,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -5896,23 +5940,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="B49" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="B50" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -5920,7 +5964,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -5928,7 +5972,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -5936,7 +5980,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -5944,7 +5988,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -5952,7 +5996,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
@@ -5960,7 +6004,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -5968,47 +6012,47 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B58" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B59" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B60" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B62" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -6016,7 +6060,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -6024,55 +6068,55 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="B65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="B66" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B67" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="B68" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="B69" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="B70" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -6080,7 +6124,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -6088,7 +6132,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -6096,7 +6140,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -6104,7 +6148,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -6112,23 +6156,23 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B76" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B77" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -6136,7 +6180,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -6144,7 +6188,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -6152,7 +6196,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -6160,7 +6204,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -6168,55 +6212,55 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B83" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B84" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B85" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B86" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B87" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B88" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -6224,7 +6268,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -6232,7 +6276,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -6240,7 +6284,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -6248,7 +6292,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -6256,7 +6300,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -6264,23 +6308,23 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B95" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B96" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -6288,7 +6332,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -6311,8 +6355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA1026-1AB1-FD49-A80A-9E93DF051417}">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6391,7 +6435,7 @@
         <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D4" t="s">
         <v>367</v>
@@ -6401,7 +6445,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Deep</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Deep</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6412,7 +6456,7 @@
         <v>370</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D5" t="s">
         <v>367</v>
@@ -6422,7 +6466,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Deep</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Deep</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6433,7 +6477,7 @@
         <v>370</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D6" t="s">
         <v>367</v>
@@ -6443,7 +6487,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Deep</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Deep</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -6475,10 +6519,10 @@
         <v>370</v>
       </c>
       <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
         <v>372</v>
-      </c>
-      <c r="D8" t="s">
-        <v>373</v>
       </c>
       <c r="E8" t="s">
         <v>135</v>
@@ -6496,17 +6540,17 @@
         <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E9" t="s">
         <v>135</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-Deep</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Psychiatric_notes-Deep</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -6538,7 +6582,7 @@
         <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D11" t="s">
         <v>367</v>
@@ -6548,7 +6592,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Dictionary</v>
+        <v>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Dictionary</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -6559,7 +6603,7 @@
         <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D12" t="s">
         <v>367</v>
@@ -6569,7 +6613,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Dictionary</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Dictionary</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6580,7 +6624,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
         <v>367</v>
@@ -6601,7 +6645,7 @@
         <v>370</v>
       </c>
       <c r="C14" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D14" t="s">
         <v>367</v>
@@ -6611,7 +6655,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Dictionary</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6619,10 +6663,10 @@
         <v>162</v>
       </c>
       <c r="B15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" t="s">
         <v>376</v>
-      </c>
-      <c r="C15" t="s">
-        <v>377</v>
       </c>
       <c r="D15" t="s">
         <v>367</v>
@@ -6640,10 +6684,10 @@
         <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D16" t="s">
         <v>367</v>
@@ -6653,7 +6697,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Drugrelated_studies-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary</v>
+        <v>Drugrelated_studies-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Dictionary</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -6661,13 +6705,13 @@
         <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" t="s">
         <v>378</v>
-      </c>
-      <c r="D17" t="s">
-        <v>379</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
@@ -6685,10 +6729,10 @@
         <v>365</v>
       </c>
       <c r="C18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" t="s">
         <v>380</v>
-      </c>
-      <c r="D18" t="s">
-        <v>381</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
@@ -6709,7 +6753,7 @@
         <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -6748,7 +6792,7 @@
         <v>370</v>
       </c>
       <c r="C21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D21" t="s">
         <v>367</v>
@@ -6766,10 +6810,10 @@
         <v>177</v>
       </c>
       <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" t="s">
         <v>384</v>
-      </c>
-      <c r="C22" t="s">
-        <v>385</v>
       </c>
       <c r="D22" t="s">
         <v>367</v>
@@ -6811,7 +6855,7 @@
         <v>370</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
         <v>367</v>
@@ -6832,7 +6876,7 @@
         <v>365</v>
       </c>
       <c r="C25" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D25" t="s">
         <v>367</v>
@@ -6842,7 +6886,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Hybrid</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Hybrid</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6853,7 +6897,7 @@
         <v>370</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26" t="s">
         <v>367</v>
@@ -6871,10 +6915,10 @@
         <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D27" t="s">
         <v>367</v>
@@ -6884,7 +6928,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>Social_determinants_of_health-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid</v>
+        <v>Social_determinants_of_health-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6895,7 +6939,7 @@
         <v>370</v>
       </c>
       <c r="C28" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D28" t="s">
         <v>367</v>
@@ -6905,7 +6949,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6916,7 +6960,7 @@
         <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="D29" t="s">
         <v>367</v>
@@ -6926,7 +6970,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Hybrid</v>
+        <v>Disease_study_area-endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Hybrid</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -6976,10 +7020,10 @@
         <v>189</v>
       </c>
       <c r="B32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C32" t="s">
         <v>376</v>
-      </c>
-      <c r="C32" t="s">
-        <v>377</v>
       </c>
       <c r="D32" t="s">
         <v>367</v>
@@ -6997,10 +7041,10 @@
         <v>190</v>
       </c>
       <c r="B33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C33" t="s">
         <v>376</v>
-      </c>
-      <c r="C33" t="s">
-        <v>377</v>
       </c>
       <c r="D33" t="s">
         <v>367</v>
@@ -7021,7 +7065,7 @@
         <v>365</v>
       </c>
       <c r="C34" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D34" t="s">
         <v>367</v>
@@ -7031,7 +7075,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Hybrid</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Hybrid</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -7042,7 +7086,7 @@
         <v>370</v>
       </c>
       <c r="C35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D35" t="s">
         <v>367</v>
@@ -7063,7 +7107,7 @@
         <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D36" t="s">
         <v>367</v>
@@ -7081,10 +7125,10 @@
         <v>193</v>
       </c>
       <c r="B37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" t="s">
         <v>376</v>
-      </c>
-      <c r="C37" t="s">
-        <v>377</v>
       </c>
       <c r="D37" t="s">
         <v>367</v>
@@ -7126,7 +7170,7 @@
         <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D39" t="s">
         <v>367</v>
@@ -7144,10 +7188,10 @@
         <v>196</v>
       </c>
       <c r="B40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D40" t="s">
         <v>367</v>
@@ -7168,7 +7212,7 @@
         <v>370</v>
       </c>
       <c r="C41" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D41" t="s">
         <v>367</v>
@@ -7178,7 +7222,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -7189,7 +7233,7 @@
         <v>370</v>
       </c>
       <c r="C42" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D42" t="s">
         <v>367</v>
@@ -7199,7 +7243,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -7210,7 +7254,7 @@
         <v>365</v>
       </c>
       <c r="C43" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D43" t="s">
         <v>367</v>
@@ -7220,7 +7264,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Hybrid</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Hybrid</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -7231,7 +7275,7 @@
         <v>370</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D44" t="s">
         <v>367</v>
@@ -7273,7 +7317,7 @@
         <v>370</v>
       </c>
       <c r="C46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" t="s">
         <v>367</v>
@@ -7295,7 +7339,7 @@
         <v>370</v>
       </c>
       <c r="C47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D47" t="s">
         <v>367</v>
@@ -7316,7 +7360,7 @@
         <v>370</v>
       </c>
       <c r="C48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D48" t="s">
         <v>367</v>
@@ -7337,7 +7381,7 @@
         <v>370</v>
       </c>
       <c r="C49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D49" t="s">
         <v>367</v>
@@ -7355,13 +7399,13 @@
         <v>209</v>
       </c>
       <c r="B50" t="s">
+        <v>375</v>
+      </c>
+      <c r="C50" t="s">
         <v>376</v>
       </c>
-      <c r="C50" t="s">
-        <v>377</v>
-      </c>
       <c r="D50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -7379,10 +7423,10 @@
         <v>370</v>
       </c>
       <c r="C51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -7400,17 +7444,17 @@
         <v>365</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D52" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Discharge_summaries-Hybrid</v>
+        <v>Clinical_workflow_optimization-Patient_management-Discharge_summaries-Hybrid</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -7421,17 +7465,17 @@
         <v>370</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Hybrid</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-Hybrid</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -7445,7 +7489,7 @@
         <v>368</v>
       </c>
       <c r="D54" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -7487,7 +7531,7 @@
         <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -7508,7 +7552,7 @@
         <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -7529,7 +7573,7 @@
         <v>366</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -7547,17 +7591,17 @@
         <v>365</v>
       </c>
       <c r="C59" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D59" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Radiology_report-Hybrid</v>
+        <v>Clinical_workflow_optimization-Patient_management-Radiology_report-Hybrid</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -7568,10 +7612,10 @@
         <v>370</v>
       </c>
       <c r="C60" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D60" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -7589,17 +7633,17 @@
         <v>370</v>
       </c>
       <c r="C61" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Radiology_report-Hybrid</v>
+        <v>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Radiology_report-Hybrid</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -7613,7 +7657,7 @@
         <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -7634,7 +7678,7 @@
         <v>368</v>
       </c>
       <c r="D63" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -7649,13 +7693,13 @@
         <v>226</v>
       </c>
       <c r="B64" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" t="s">
         <v>376</v>
       </c>
-      <c r="C64" t="s">
-        <v>377</v>
-      </c>
       <c r="D64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -7673,17 +7717,17 @@
         <v>365</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D65" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E65" t="s">
         <v>137</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Claims_data-ML</v>
+        <v>Clinical_workflow_optimization-Patient_management-Claims_data-ML</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -7694,7 +7738,7 @@
         <v>370</v>
       </c>
       <c r="C66" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D66" t="s">
         <v>367</v>
@@ -7704,7 +7748,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-ML</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -7715,7 +7759,7 @@
         <v>370</v>
       </c>
       <c r="C67" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D67" t="s">
         <v>367</v>
@@ -7725,7 +7769,7 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="1">CONCATENATE(B67,"-",C67,"-",D67,"-",E67)</f>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-ML</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -7736,7 +7780,7 @@
         <v>370</v>
       </c>
       <c r="C68" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D68" t="s">
         <v>367</v>
@@ -7746,7 +7790,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-ML</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -7754,10 +7798,10 @@
         <v>232</v>
       </c>
       <c r="B69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D69" t="s">
         <v>367</v>
@@ -7778,7 +7822,7 @@
         <v>370</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D70" t="s">
         <v>367</v>
@@ -7788,7 +7832,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-ML</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -7799,7 +7843,7 @@
         <v>370</v>
       </c>
       <c r="C71" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D71" t="s">
         <v>367</v>
@@ -7838,10 +7882,10 @@
         <v>236</v>
       </c>
       <c r="B73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D73" t="s">
         <v>367</v>
@@ -7859,10 +7903,10 @@
         <v>237</v>
       </c>
       <c r="B74" t="s">
+        <v>375</v>
+      </c>
+      <c r="C74" t="s">
         <v>376</v>
-      </c>
-      <c r="C74" t="s">
-        <v>377</v>
       </c>
       <c r="D74" t="s">
         <v>367</v>
@@ -7883,7 +7927,7 @@
         <v>370</v>
       </c>
       <c r="C75" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D75" t="s">
         <v>367</v>
@@ -7893,7 +7937,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-ML</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -7925,7 +7969,7 @@
         <v>370</v>
       </c>
       <c r="C77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D77" t="s">
         <v>367</v>
@@ -7964,10 +8008,10 @@
         <v>242</v>
       </c>
       <c r="B79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D79" t="s">
         <v>367</v>
@@ -8009,7 +8053,7 @@
         <v>370</v>
       </c>
       <c r="C81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D81" t="s">
         <v>367</v>
@@ -8051,7 +8095,7 @@
         <v>370</v>
       </c>
       <c r="C83" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D83" t="s">
         <v>367</v>
@@ -8072,7 +8116,7 @@
         <v>365</v>
       </c>
       <c r="C84" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D84" t="s">
         <v>367</v>
@@ -8082,7 +8126,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-ML</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-ML</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -8096,7 +8140,7 @@
         <v>368</v>
       </c>
       <c r="D85" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E85" t="s">
         <v>137</v>
@@ -8114,17 +8158,17 @@
         <v>365</v>
       </c>
       <c r="C86" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D86" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
         <v>137</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Discharge_summaries-ML</v>
+        <v>Clinical_workflow_optimization-Patient_management-Discharge_summaries-ML</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -8135,17 +8179,17 @@
         <v>365</v>
       </c>
       <c r="C87" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D87" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E87" t="s">
         <v>137</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Discharge_summaries-ML</v>
+        <v>Clinical_workflow_optimization-Patient_management-Discharge_summaries-ML</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -8156,17 +8200,17 @@
         <v>370</v>
       </c>
       <c r="C88" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D88" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E88" t="s">
         <v>137</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-ML</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-ML</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -8174,13 +8218,13 @@
         <v>253</v>
       </c>
       <c r="B89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E89" t="s">
         <v>137</v>
@@ -8198,10 +8242,10 @@
         <v>370</v>
       </c>
       <c r="C90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D90" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E90" t="s">
         <v>137</v>
@@ -8222,7 +8266,7 @@
         <v>368</v>
       </c>
       <c r="D91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E91" t="s">
         <v>137</v>
@@ -8243,7 +8287,7 @@
         <v>180</v>
       </c>
       <c r="D92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E92" t="s">
         <v>137</v>
@@ -8261,17 +8305,17 @@
         <v>365</v>
       </c>
       <c r="C93" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E93" t="s">
         <v>137</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Pathology_report-ML</v>
+        <v>Clinical_workflow_optimization-Patient_management-Pathology_report-ML</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -8282,17 +8326,17 @@
         <v>370</v>
       </c>
       <c r="C94" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E94" t="s">
         <v>137</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-ML</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Psychiatric_notes-ML</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -8303,10 +8347,10 @@
         <v>370</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D95" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E95" t="s">
         <v>137</v>
@@ -8324,17 +8368,17 @@
         <v>370</v>
       </c>
       <c r="C96" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D96" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E96" t="s">
         <v>137</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Radiology_report-ML</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Radiology_report-ML</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -8345,10 +8389,10 @@
         <v>365</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D97" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E97" t="s">
         <v>137</v>
@@ -8369,7 +8413,7 @@
         <v>368</v>
       </c>
       <c r="D98" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E98" t="s">
         <v>137</v>
@@ -8390,7 +8434,7 @@
         <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E99" t="s">
         <v>137</v>
@@ -8405,13 +8449,13 @@
         <v>265</v>
       </c>
       <c r="B100" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D100" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E100" t="s">
         <v>137</v>
@@ -8429,10 +8473,10 @@
         <v>370</v>
       </c>
       <c r="C101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D101" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E101" t="s">
         <v>137</v>
@@ -8447,13 +8491,13 @@
         <v>267</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D102" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E102" t="s">
         <v>136</v>
@@ -8471,10 +8515,10 @@
         <v>370</v>
       </c>
       <c r="C103" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D103" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E103" t="s">
         <v>137</v>
@@ -8492,10 +8536,10 @@
         <v>370</v>
       </c>
       <c r="C104" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E104" t="s">
         <v>136</v>
@@ -8513,10 +8557,10 @@
         <v>370</v>
       </c>
       <c r="C105" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D105" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E105" t="s">
         <v>136</v>
@@ -8531,10 +8575,10 @@
         <v>272</v>
       </c>
       <c r="B106" t="s">
+        <v>375</v>
+      </c>
+      <c r="C106" t="s">
         <v>376</v>
-      </c>
-      <c r="C106" t="s">
-        <v>377</v>
       </c>
       <c r="D106" t="s">
         <v>367</v>
@@ -8552,10 +8596,10 @@
         <v>273</v>
       </c>
       <c r="B107" t="s">
+        <v>375</v>
+      </c>
+      <c r="C107" t="s">
         <v>376</v>
-      </c>
-      <c r="C107" t="s">
-        <v>377</v>
       </c>
       <c r="D107" t="s">
         <v>367</v>
@@ -8576,7 +8620,7 @@
         <v>370</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D108" t="s">
         <v>367</v>
@@ -8597,7 +8641,7 @@
         <v>370</v>
       </c>
       <c r="C109" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D109" t="s">
         <v>367</v>
@@ -8618,7 +8662,7 @@
         <v>370</v>
       </c>
       <c r="C110" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D110" t="s">
         <v>367</v>
@@ -8639,7 +8683,7 @@
         <v>370</v>
       </c>
       <c r="C111" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D111" t="s">
         <v>367</v>
@@ -8649,7 +8693,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Rule</v>
+        <v>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -8657,10 +8701,10 @@
         <v>278</v>
       </c>
       <c r="B112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C112" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D112" t="s">
         <v>367</v>
@@ -8681,7 +8725,7 @@
         <v>365</v>
       </c>
       <c r="C113" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D113" t="s">
         <v>367</v>
@@ -8691,7 +8735,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Rule</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -8702,7 +8746,7 @@
         <v>370</v>
       </c>
       <c r="C114" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D114" t="s">
         <v>367</v>
@@ -8723,7 +8767,7 @@
         <v>370</v>
       </c>
       <c r="C115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D115" t="s">
         <v>367</v>
@@ -8744,7 +8788,7 @@
         <v>370</v>
       </c>
       <c r="C116" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D116" t="s">
         <v>367</v>
@@ -8754,7 +8798,7 @@
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Rule</v>
+        <v>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -8765,7 +8809,7 @@
         <v>370</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D117" t="s">
         <v>367</v>
@@ -8775,7 +8819,7 @@
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Rule</v>
+        <v>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -8807,7 +8851,7 @@
         <v>370</v>
       </c>
       <c r="C119" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D119" t="s">
         <v>367</v>
@@ -8828,7 +8872,7 @@
         <v>370</v>
       </c>
       <c r="C120" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D120" t="s">
         <v>367</v>
@@ -8838,7 +8882,7 @@
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Rule</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -8870,7 +8914,7 @@
         <v>370</v>
       </c>
       <c r="C122" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D122" t="s">
         <v>367</v>
@@ -8880,7 +8924,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Rule</v>
+        <v>Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -8888,10 +8932,10 @@
         <v>289</v>
       </c>
       <c r="B123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D123" t="s">
         <v>367</v>
@@ -8909,10 +8953,10 @@
         <v>290</v>
       </c>
       <c r="B124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C124" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D124" t="s">
         <v>367</v>
@@ -8930,10 +8974,10 @@
         <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C125" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D125" t="s">
         <v>367</v>
@@ -8954,7 +8998,7 @@
         <v>365</v>
       </c>
       <c r="C126" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D126" t="s">
         <v>367</v>
@@ -8964,7 +9008,7 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Rule</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -8972,10 +9016,10 @@
         <v>294</v>
       </c>
       <c r="B127" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C127" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D127" t="s">
         <v>367</v>
@@ -8996,7 +9040,7 @@
         <v>370</v>
       </c>
       <c r="C128" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D128" t="s">
         <v>367</v>
@@ -9006,7 +9050,7 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Rule</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -9038,7 +9082,7 @@
         <v>370</v>
       </c>
       <c r="C130" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D130" t="s">
         <v>367</v>
@@ -9080,7 +9124,7 @@
         <v>370</v>
       </c>
       <c r="C132" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D132" t="s">
         <v>367</v>
@@ -9143,7 +9187,7 @@
         <v>370</v>
       </c>
       <c r="C135" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D135" t="s">
         <v>367</v>
@@ -9164,7 +9208,7 @@
         <v>370</v>
       </c>
       <c r="C136" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D136" t="s">
         <v>367</v>
@@ -9185,7 +9229,7 @@
         <v>365</v>
       </c>
       <c r="C137" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D137" t="s">
         <v>367</v>
@@ -9195,7 +9239,7 @@
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Rule</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -9206,7 +9250,7 @@
         <v>370</v>
       </c>
       <c r="C138" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D138" t="s">
         <v>367</v>
@@ -9224,10 +9268,10 @@
         <v>306</v>
       </c>
       <c r="B139" t="s">
+        <v>375</v>
+      </c>
+      <c r="C139" t="s">
         <v>376</v>
-      </c>
-      <c r="C139" t="s">
-        <v>377</v>
       </c>
       <c r="D139" t="s">
         <v>367</v>
@@ -9248,7 +9292,7 @@
         <v>370</v>
       </c>
       <c r="C140" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D140" t="s">
         <v>367</v>
@@ -9269,7 +9313,7 @@
         <v>370</v>
       </c>
       <c r="C141" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D141" t="s">
         <v>367</v>
@@ -9290,7 +9334,7 @@
         <v>370</v>
       </c>
       <c r="C142" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D142" t="s">
         <v>367</v>
@@ -9311,7 +9355,7 @@
         <v>370</v>
       </c>
       <c r="C143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D143" t="s">
         <v>367</v>
@@ -9332,7 +9376,7 @@
         <v>370</v>
       </c>
       <c r="C144" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D144" t="s">
         <v>367</v>
@@ -9350,10 +9394,10 @@
         <v>312</v>
       </c>
       <c r="B145" t="s">
+        <v>375</v>
+      </c>
+      <c r="C145" t="s">
         <v>376</v>
-      </c>
-      <c r="C145" t="s">
-        <v>377</v>
       </c>
       <c r="D145" t="s">
         <v>367</v>
@@ -9374,7 +9418,7 @@
         <v>370</v>
       </c>
       <c r="C146" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D146" t="s">
         <v>367</v>
@@ -9395,7 +9439,7 @@
         <v>365</v>
       </c>
       <c r="C147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D147" t="s">
         <v>367</v>
@@ -9416,7 +9460,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D148" t="s">
         <v>367</v>
@@ -9426,7 +9470,7 @@
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
-        <v>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Rule</v>
+        <v>Clinical_workflow_optimization-Patient_management-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -9437,7 +9481,7 @@
         <v>370</v>
       </c>
       <c r="C149" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D149" t="s">
         <v>367</v>
@@ -9447,7 +9491,7 @@
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Rule</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -9455,10 +9499,10 @@
         <v>317</v>
       </c>
       <c r="B150" t="s">
+        <v>375</v>
+      </c>
+      <c r="C150" t="s">
         <v>376</v>
-      </c>
-      <c r="C150" t="s">
-        <v>377</v>
       </c>
       <c r="D150" t="s">
         <v>367</v>
@@ -9476,10 +9520,10 @@
         <v>318</v>
       </c>
       <c r="B151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C151" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D151" t="s">
         <v>367</v>
@@ -9500,7 +9544,7 @@
         <v>370</v>
       </c>
       <c r="C152" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D152" t="s">
         <v>367</v>
@@ -9518,10 +9562,10 @@
         <v>320</v>
       </c>
       <c r="B153" t="s">
+        <v>375</v>
+      </c>
+      <c r="C153" t="s">
         <v>376</v>
-      </c>
-      <c r="C153" t="s">
-        <v>377</v>
       </c>
       <c r="D153" t="s">
         <v>367</v>
@@ -9542,7 +9586,7 @@
         <v>370</v>
       </c>
       <c r="C154" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D154" t="s">
         <v>367</v>
@@ -9552,7 +9596,7 @@
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Rule</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Rule</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -9563,10 +9607,10 @@
         <v>370</v>
       </c>
       <c r="C155" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D155" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E155" t="s">
         <v>136</v>
@@ -9584,17 +9628,17 @@
         <v>370</v>
       </c>
       <c r="C156" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D156" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E156" t="s">
         <v>136</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
-        <v>Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Rule</v>
+        <v>Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-Rule</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -9602,13 +9646,13 @@
         <v>324</v>
       </c>
       <c r="B157" t="s">
+        <v>375</v>
+      </c>
+      <c r="C157" t="s">
         <v>376</v>
       </c>
-      <c r="C157" t="s">
-        <v>377</v>
-      </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E157" t="s">
         <v>136</v>
@@ -9623,20 +9667,20 @@
         <v>325</v>
       </c>
       <c r="B158" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C158" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D158" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E158" t="s">
         <v>136</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
-        <v>Social_determinants_of_health-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Discharge_summaries-Rule</v>
+        <v>Social_determinants_of_health-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Discharge_summaries-Rule</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -9647,10 +9691,10 @@
         <v>370</v>
       </c>
       <c r="C159" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D159" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E159" t="s">
         <v>136</v>
@@ -9664,10 +9708,10 @@
         <v>365</v>
       </c>
       <c r="C160" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D160" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E160" t="s">
         <v>136</v>
@@ -9678,13 +9722,13 @@
         <v>328</v>
       </c>
       <c r="B161" t="s">
+        <v>375</v>
+      </c>
+      <c r="C161" t="s">
         <v>376</v>
       </c>
-      <c r="C161" t="s">
-        <v>377</v>
-      </c>
       <c r="D161" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E161" t="s">
         <v>136</v>
@@ -9695,13 +9739,13 @@
         <v>329</v>
       </c>
       <c r="B162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C162" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D162" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E162" t="s">
         <v>136</v>
@@ -9715,10 +9759,10 @@
         <v>370</v>
       </c>
       <c r="C163" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D163" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E163" t="s">
         <v>136</v>
@@ -9732,10 +9776,10 @@
         <v>370</v>
       </c>
       <c r="C164" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D164" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E164" t="s">
         <v>136</v>
@@ -9752,7 +9796,7 @@
         <v>368</v>
       </c>
       <c r="D165" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E165" t="s">
         <v>136</v>
@@ -9769,7 +9813,7 @@
         <v>368</v>
       </c>
       <c r="D166" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E166" t="s">
         <v>136</v>
@@ -9783,10 +9827,10 @@
         <v>370</v>
       </c>
       <c r="C167" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D167" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E167" t="s">
         <v>136</v>
@@ -9800,10 +9844,10 @@
         <v>370</v>
       </c>
       <c r="C168" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D168" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E168" t="s">
         <v>136</v>
@@ -9817,10 +9861,10 @@
         <v>370</v>
       </c>
       <c r="C169" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E169" t="s">
         <v>136</v>
@@ -9834,10 +9878,10 @@
         <v>370</v>
       </c>
       <c r="C170" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D170" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E170" t="s">
         <v>136</v>
@@ -9868,10 +9912,10 @@
         <v>370</v>
       </c>
       <c r="C172" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D172" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E172" t="s">
         <v>136</v>
@@ -9888,7 +9932,7 @@
         <v>180</v>
       </c>
       <c r="D173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E173" t="s">
         <v>136</v>
@@ -9905,7 +9949,7 @@
         <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E174" t="s">
         <v>136</v>
@@ -9919,10 +9963,10 @@
         <v>370</v>
       </c>
       <c r="C175" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D175" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E175" t="s">
         <v>136</v>
@@ -9939,7 +9983,7 @@
         <v>368</v>
       </c>
       <c r="D176" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E176" t="s">
         <v>136</v>
@@ -9956,7 +10000,7 @@
         <v>172</v>
       </c>
       <c r="D177" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E177" t="s">
         <v>136</v>
@@ -9973,7 +10017,7 @@
         <v>368</v>
       </c>
       <c r="D178" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E178" t="s">
         <v>136</v>
@@ -9987,10 +10031,10 @@
         <v>370</v>
       </c>
       <c r="C179" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="D179" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E179" t="s">
         <v>136</v>
@@ -10004,10 +10048,10 @@
         <v>370</v>
       </c>
       <c r="C180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D180" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E180" t="s">
         <v>136</v>
@@ -10024,7 +10068,7 @@
         <v>180</v>
       </c>
       <c r="D181" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E181" t="s">
         <v>136</v>
@@ -10035,13 +10079,13 @@
         <v>350</v>
       </c>
       <c r="B182" t="s">
+        <v>375</v>
+      </c>
+      <c r="C182" t="s">
         <v>376</v>
       </c>
-      <c r="C182" t="s">
-        <v>377</v>
-      </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E182" t="s">
         <v>136</v>
@@ -10055,10 +10099,10 @@
         <v>370</v>
       </c>
       <c r="C183" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E183" t="s">
         <v>136</v>
@@ -10069,10 +10113,10 @@
         <v>352</v>
       </c>
       <c r="B184" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C184" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D184" t="s">
         <v>367</v>
@@ -10086,10 +10130,10 @@
         <v>353</v>
       </c>
       <c r="B185" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C185" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D185" t="s">
         <v>367</v>
@@ -10106,10 +10150,10 @@
         <v>370</v>
       </c>
       <c r="C186" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
@@ -10123,10 +10167,10 @@
         <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E187" t="s">
         <v>137</v>
@@ -10140,7 +10184,7 @@
         <v>370</v>
       </c>
       <c r="C188" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D188" t="s">
         <v>367</v>
@@ -10157,7 +10201,7 @@
         <v>370</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D189" t="s">
         <v>367</v>
@@ -10174,7 +10218,7 @@
         <v>370</v>
       </c>
       <c r="C190" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D190" t="s">
         <v>367</v>
@@ -10191,7 +10235,7 @@
         <v>365</v>
       </c>
       <c r="C191" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D191" t="s">
         <v>367</v>
@@ -10208,7 +10252,7 @@
         <v>370</v>
       </c>
       <c r="C192" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="D192" t="s">
         <v>367</v>
@@ -10225,10 +10269,10 @@
         <v>365</v>
       </c>
       <c r="C193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D193" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E193" t="s">
         <v>136</v>

--- a/d3/cnr_d3.xlsx
+++ b/d3/cnr_d3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m176320/Documents/GitHub/sunyang_site/sunyangfu.github.io/d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26022135-232C-AC4C-8D27-B7022288B338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17480C-97EE-8543-9358-0DB2FF434AC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="3" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="1" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="497">
   <si>
     <t>Method Type</t>
   </si>
@@ -275,9 +275,6 @@
     <t>40E0D0</t>
   </si>
   <si>
-    <t>48D1CC</t>
-  </si>
-  <si>
     <t>00CED1</t>
   </si>
   <si>
@@ -1145,9 +1142,6 @@
     <t>Measurement_value_extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient_management	</t>
-  </si>
-  <si>
     <t>Disease_study_area</t>
   </si>
   <si>
@@ -1157,9 +1151,6 @@
     <t>Psychiatric_notes</t>
   </si>
   <si>
-    <t>Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders</t>
-  </si>
-  <si>
     <t>Diseases_of_the_circulatory_system</t>
   </si>
   <si>
@@ -1274,33 +1265,6 @@
     <t>Clinical_workflow_optimization-Measurement_value_extraction-Radiology_report-ML</t>
   </si>
   <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Deep</t>
-  </si>
-  <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Dictionary</t>
-  </si>
-  <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Hybrid</t>
-  </si>
-  <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Clinical_notes-ML</t>
-  </si>
-  <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Clinical_notes-Rule</t>
-  </si>
-  <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Discharge_summaries-Hybrid</t>
-  </si>
-  <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Discharge_summaries-ML</t>
-  </si>
-  <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Pathology_report-ML</t>
-  </si>
-  <si>
-    <t>Clinical_workflow_optimization-Patient_management	-Radiology_report-Hybrid</t>
-  </si>
-  <si>
     <t>Clinical_workflow_optimization-Quality_control-Clinical_notes-Rule</t>
   </si>
   <si>
@@ -1466,9 +1430,6 @@
     <t>Drug_related_studies</t>
   </si>
   <si>
-    <t>Symptoms__signs__and_ill_defined_conditions</t>
-  </si>
-  <si>
     <t>Symptoms_signs_and_illdefined_conditions</t>
   </si>
   <si>
@@ -1536,6 +1497,36 @@
   </si>
   <si>
     <t>Clinical_workflow_optimization-Patient_management-Claims_data-ML</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Clinical_notes-Deep</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Clinical_notes-Dictionary</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Clinical_notes-Hybrid</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Discharge_summaries-Hybrid</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Radiology_report-Hybrid</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Clinical_notes-ML</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Discharge_summaries-ML</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Pathology_report-ML</t>
+  </si>
+  <si>
+    <t>Clinical_workflow_optimization-Patient_management-Clinical_notes-Rule</t>
+  </si>
+  <si>
+    <t>Symptoms_signs_and_ill_defined_conditions</t>
   </si>
 </sst>
 </file>
@@ -1651,21 +1642,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fu, Sunyang" refreshedDate="43665.886045486113" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="156" xr:uid="{2553EBFE-2A76-BF42-A645-8DFE29F6A614}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fu, Sunyang" refreshedDate="43665.886502314817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="156" xr:uid="{2553EBFE-2A76-BF42-A645-8DFE29F6A614}">
   <cacheSource type="worksheet">
     <worksheetSource ref="F2:F158" sheet="Sheet2"/>
   </cacheSource>
   <cacheFields count="1">
     <cacheField name="Clinical_workflow_optimization-Data_privacy-Clinical_notes-Deep" numFmtId="0">
-      <sharedItems count="114">
+      <sharedItems count="123">
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Clinical_notes-Deep"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Deep"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Clinical_notes-Deep"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Deep"/>
         <s v="Disease_study_area-Mental_disorders-Psychiatric_notes-Deep"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Psychiatric_notes-Deep"/>
         <s v="Clinical_workflow_optimization-Data_privacy-Clinical_notes-Dictionary"/>
         <s v="Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Dictionary"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Dictionary"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Clinical_notes-Dictionary"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Clinical_notes-Dictionary"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Dictionary"/>
         <s v="Drugrelated_studies-Medication_extraction-Clinical_notes-Dictionary"/>
@@ -1678,7 +1669,7 @@
         <s v="Social_determinants_of_health-Diseases_of_the_respiratory_system-Clinical_notes-Hybrid"/>
         <s v="Disease_study_area-Neoplasms-Clinical_notes-Hybrid"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Clinical_notes-Hybrid"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Hybrid"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Clinical_notes-Hybrid"/>
         <s v="Social_determinants_of_health-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Hybrid"/>
         <s v="Disease_study_area-endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Hybrid"/>
@@ -1691,12 +1682,12 @@
         <s v="Disease_study_area-Mental_disorders-Clinical_notes-Hybrid"/>
         <s v="Drugrelated_studies-Medication_extraction-Discharge_summaries-Hybrid"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Discharge_summaries-Hybrid"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Discharge_summaries-Hybrid"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Discharge_summaries-Hybrid"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-Hybrid"/>
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Discharge_summaries-Hybrid"/>
         <s v="Disease_study_area-neoplasms-Pathology_report-Hybrid"/>
         <s v="Clinical_workflow_optimization-Data_privacy-Psychiatric_notes-Hybrid"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Radiology_report-Hybrid"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Radiology_report-Hybrid"/>
         <s v="Disease_study_area-Diseases_of_the_nervous_system-Radiology_report-Hybrid"/>
         <s v="Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Radiology_report-Hybrid"/>
         <s v="Disease_study_area-Neoplasms-Radiology_report-Hybrid"/>
@@ -1713,15 +1704,15 @@
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Clinical_notes-ML"/>
         <s v="Clinical_workflow_optimization-Data_privacy-Clinical_notes-ML"/>
         <s v="Disease_study_area-Diseases_of_the_digestive_system-Clinical_notes-ML"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-ML"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Clinical_notes-ML"/>
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Discharge_summaries-ML"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Discharge_summaries-ML"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Discharge_summaries-ML"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Discharge_summaries-ML"/>
         <s v="Drugrelated_studies-Adverse_drug_reaction-Discharge_summaries-ML"/>
         <s v="Disease_study_area-Diseases_of_the_circulatory_system-Echocardiogram_reports-ML"/>
         <s v="Clinical_workflow_optimization-Measurement_value_extraction-Pathology_report-ML"/>
         <s v="Disease_study_area-Neoplasms-Pathology_report-ML"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Pathology_report-ML"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Pathology_report-ML"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Psychiatric_notes-ML"/>
         <s v="Disease_study_area-Diseases_of_the_digestive_system-Radiology_report-ML"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Radiology_report-ML"/>
@@ -1739,7 +1730,7 @@
         <s v="Disease_study_area-Diseases_of_the_digestive_system-Clinical_notes-Rule"/>
         <s v="Disease_study_area-Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders-Clinical_notes-Rule"/>
         <s v="Drugrelated_studies-Diseases_of_the_digestive_system-Clinical_notes-Rule"/>
-        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Rule"/>
+        <s v="Clinical_workflow_optimization-Patient_management-Clinical_notes-Rule"/>
         <s v="Disease_study_area-neoplasms-Clinical_notes-Rule"/>
         <s v="Disease_study_area-Symptoms_signs_and_illdefined_conditions-Clinical_notes-Rule"/>
         <s v="Drugrelated_studies-Adverse_drug_reaction-Clinical_notes-Rule"/>
@@ -1756,19 +1747,28 @@
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-ML" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-ML" u="1"/>
         <s v="Drugrelated_studies-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-ML" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Hybrid" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-ML" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Radiology_report-Hybrid" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Radiology_report-ML" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Discharge_summaries-Hybrid" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Rule" u="1"/>
         <s v="Disease_study_area-endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Hybrid" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Dictionary" u="1"/>
         <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Rule" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Discharge_summaries-ML" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Deep" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Discharge_summaries-Rule" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Pathology_report-ML" u="1"/>
         <s v="Social_determinants_of_health-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Hybrid" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Hybrid" u="1"/>
         <s v="Social_determinants_of_health-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Discharge_summaries-Rule" u="1"/>
         <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Radiology_report-Hybrid" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Deep" u="1"/>
         <s v="Clinical_workflow_optimization-Patient_management_x0009_-Claims_data-ML" u="1"/>
+        <s v="Clinical_workflow_optimization-Patient_management_x0009_-Clinical_notes-Rule" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Psychiatric_notes-Deep" u="1"/>
         <s v="Disease_study_area-Symptoms__signs__and_illdefined_conditions-Clinical_notes-Dictionary" u="1"/>
         <s v="Disease_study_area-Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders-Clinical_notes-Dictionary" u="1"/>
@@ -2257,11 +2257,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7C028B8-DE54-6C44-9733-157687C63C37}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7C028B8-DE54-6C44-9733-157687C63C37}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B99" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="115">
+      <items count="124">
         <item x="5"/>
         <item x="28"/>
         <item x="53"/>
@@ -2275,16 +2275,16 @@
         <item x="61"/>
         <item x="42"/>
         <item x="68"/>
-        <item m="1" x="110"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="55"/>
-        <item x="81"/>
-        <item x="33"/>
-        <item x="57"/>
-        <item x="63"/>
-        <item x="38"/>
+        <item m="1" x="118"/>
+        <item m="1" x="117"/>
+        <item m="1" x="106"/>
+        <item m="1" x="114"/>
+        <item m="1" x="98"/>
+        <item m="1" x="119"/>
+        <item m="1" x="103"/>
+        <item m="1" x="108"/>
+        <item m="1" x="112"/>
+        <item m="1" x="101"/>
         <item x="90"/>
         <item x="13"/>
         <item x="67"/>
@@ -2306,10 +2306,10 @@
         <item x="39"/>
         <item x="25"/>
         <item x="47"/>
-        <item m="1" x="113"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="109"/>
+        <item m="1" x="122"/>
+        <item m="1" x="105"/>
+        <item m="1" x="107"/>
+        <item m="1" x="116"/>
         <item x="6"/>
         <item x="23"/>
         <item x="79"/>
@@ -2328,17 +2328,17 @@
         <item x="62"/>
         <item x="41"/>
         <item x="69"/>
+        <item m="1" x="109"/>
+        <item m="1" x="121"/>
+        <item m="1" x="110"/>
+        <item m="1" x="100"/>
         <item m="1" x="104"/>
-        <item m="1" x="112"/>
-        <item m="1" x="105"/>
         <item m="1" x="99"/>
-        <item m="1" x="101"/>
-        <item m="1" x="98"/>
         <item m="1" x="95"/>
-        <item m="1" x="106"/>
         <item m="1" x="111"/>
+        <item m="1" x="120"/>
         <item m="1" x="96"/>
-        <item m="1" x="100"/>
+        <item m="1" x="102"/>
         <item x="2"/>
         <item x="9"/>
         <item x="22"/>
@@ -2368,14 +2368,23 @@
         <item m="1" x="97"/>
         <item x="11"/>
         <item x="17"/>
-        <item m="1" x="108"/>
+        <item m="1" x="115"/>
         <item x="94"/>
         <item x="26"/>
         <item x="86"/>
         <item x="70"/>
-        <item m="1" x="107"/>
+        <item m="1" x="113"/>
         <item x="21"/>
         <item x="44"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="33"/>
+        <item x="38"/>
+        <item x="55"/>
+        <item x="57"/>
+        <item x="63"/>
+        <item x="81"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2422,33 +2431,6 @@
     </i>
     <i>
       <x v="12"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
     </i>
     <i>
       <x v="23"/>
@@ -2668,6 +2650,33 @@
     </i>
     <i>
       <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
     </i>
     <i t="grand">
       <x/>
@@ -3003,22 +3012,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3028,7 +3037,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -3038,67 +3047,67 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -3108,62 +3117,62 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -3173,17 +3182,17 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -3193,7 +3202,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
@@ -3218,954 +3227,943 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F923B06-6A46-AE4D-AA45-C7438FDA473B}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>374</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>"": "#CD5C5C",</v>
+        <v>"Adverse_drug_reaction": "#CD5C5C",</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="0">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>"": "#A9A9A9",</v>
+        <v>"Claims_data": "#A9A9A9",</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>"": "#F5FFFA",</v>
+        <v>"Clinical_notes": "#F5FFFA",</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>"": "#B8860B",</v>
+        <v>"Clinical_workflow_optimization": "#B8860B",</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>"": "#E9967A",</v>
+        <v>"Data_privacy": "#E9967A",</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7">
         <v>708090</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>"": "#708090",</v>
+        <v>"Deep": "#708090",</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>"Adverse_drug_reaction": "#FF7F50",</v>
+        <v>"Dictionary": "#FF7F50",</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>"Claims_data": "#8A2BE2",</v>
+        <v>"Discharge_summaries": "#8A2BE2",</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>"Clinical_notes": "#8B008B",</v>
+        <v>"Disease_study_area": "#8B008B",</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>"Clinical_workflow_optimization": "#C0C0C0",</v>
+        <v>"Diseases_of_the_circulatory_system": "#C0C0C0",</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>"Data_privacy": "#BDB76B",</v>
+        <v>"Diseases_of_the_digestive_system": "#BDB76B",</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>"Deep": "#FF00FF",</v>
+        <v>"Diseases_of_the_genitourinary_system": "#FF00FF",</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>"Dictionary": "#FA8072",</v>
+        <v>"Diseases_of_the_musculoskeletal_system_and_connective_tissue": "#FA8072",</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>"Discharge_summaries": "#8B4513",</v>
+        <v>"Diseases_of_the_nervous_system": "#8B4513",</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>"Disease_study_area": "#7CFC00",</v>
+        <v>"Diseases_of_the_respiratory_system": "#7CFC00",</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>"Diseases_of_the_circulatory_system": "#FFF0F5",</v>
+        <v>"Dosage_extraction": "#FFF0F5",</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>"Diseases_of_the_digestive_system": "#9400D3",</v>
+        <v>"Drug_related_studies": "#9400D3",</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>"Diseases_of_the_genitourinary_system": "#FFA07A",</v>
+        <v>"Echocardiogram_reports": "#FFA07A",</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>"Diseases_of_the_musculoskeletal_system_and_connective_tissue": "#DA70D6",</v>
+        <v>"Encounter_notes": "#DA70D6",</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>"Diseases_of_the_nervous_system": "#8FBC8F",</v>
+        <v>"Endocrine_nutritional_and_metabolic_diseases_and_immunity_disorders": "#8FBC8F",</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>"Diseases_of_the_respiratory_system": "#ADD8E6",</v>
+        <v>"Hybrid": "#ADD8E6",</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" t="s">
-        <v>396</v>
+        <v>131</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="7">
         <v>800000</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>"Dosage_extraction": "#800000",</v>
+        <v>"Infectious_and_parasitic_diseases": "#800000",</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>"Drug_related_studies": "#87CEEB",</v>
+        <v>"Injury_and_poisoning": "#87CEEB",</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>"Echocardiogram_reports": "#0000CD",</v>
+        <v>"Measurement_value_extraction": "#0000CD",</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>"Encounter_notes": "#FFF5EE",</v>
+        <v>"Medication_extraction": "#FFF5EE",</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>"Endocrine__nutritional_and_metabolic_diseases__and_immunity_disorders": "#F8F8FF",</v>
+        <v>"Mental_disorders": "#F8F8FF",</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>375</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>"Hybrid": "#00FF7F",</v>
+        <v>"Microbiology_reports": "#00FF7F",</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>386</v>
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>"Infectious_and_parasitic_diseases": "#F0F8FF",</v>
+        <v>"ML": "#F0F8FF",</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>"Injury_and_poisoning": "#FFC0CB",</v>
+        <v>"neoplasms": "#FFC0CB",</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>"Measurement_value_extraction": "#FFFACD",</v>
+        <v>"Operative_report": "#FFFACD",</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>"Medication_extraction": "#DAA520",</v>
+        <v>"Pathology_report": "#DAA520",</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="7">
         <v>778899</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>"Mental_disorders": "#778899",</v>
+        <v>"Patient_management": "#778899",</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>"Microbiology_reports": "#FF1493",</v>
+        <v>"Psychiatric_notes": "#FF1493",</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>376</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>"ML": "#F0FFF0",</v>
+        <v>"Quality_control": "#F0FFF0",</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>"neoplasms": "#FFFFFF",</v>
+        <v>"Radiology_report": "#FFFFFF",</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>"Operative_report": "#C71585",</v>
+        <v>"Rule": "#C71585",</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>"Pathology_report": "#DB7093",</v>
+        <v>"Social_Behavior": "#DB7093",</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>"Patient_management	": "#FDF5E6",</v>
+        <v>"Social_determinants_of_health": "#FDF5E6",</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>372</v>
+        <v>496</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>"Psychiatric_notes": "#AFEEEE",</v>
+        <v>"Symptoms_signs_and_ill_defined_conditions": "#AFEEEE",</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" t="s">
-        <v>379</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>"Quality_control": "#48D1CC",</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" t="s">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>"Radiology_report": "#4682B4",</v>
+        <v>"": "#4682B4",</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>"Rule": "#2E8B57",</v>
+        <v>"": "#2E8B57",</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" t="s">
-        <v>385</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>"Social_Behavior": "#FFA500",</v>
+        <v>"": "#FFA500",</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" t="s">
-        <v>383</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>"Social_determinants_of_health": "#FFFF00",</v>
+        <v>"": "#FFFF00",</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" t="s">
-        <v>476</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>"Symptoms__signs__and_ill_defined_conditions": "#F0E68C",</v>
+        <v>"": "#F0E68C",</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -4174,16 +4172,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -4192,16 +4190,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -4210,16 +4208,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -4228,16 +4226,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -4246,16 +4244,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -4264,16 +4262,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="7">
         <v>191970</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -4282,16 +4280,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -4300,16 +4298,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="7">
         <v>800080</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -4318,16 +4316,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -4336,16 +4334,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -4354,16 +4352,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -4372,16 +4370,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -4390,16 +4388,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -4408,16 +4406,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -4426,16 +4424,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -4444,16 +4442,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -4462,16 +4460,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -4480,16 +4478,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -4498,16 +4496,16 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -4519,16 +4517,16 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ref="F66:F80" si="1">CONCATENATE(A66,B66,C66,D66,E66)</f>
@@ -4537,16 +4535,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="7">
         <v>808080</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="1"/>
@@ -4555,16 +4553,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -4573,16 +4571,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -4591,16 +4589,16 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -4609,16 +4607,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -4627,16 +4625,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -4645,16 +4643,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -4663,16 +4661,16 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
@@ -4681,16 +4679,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
@@ -4699,16 +4697,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -4717,16 +4715,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -4735,16 +4733,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
@@ -4753,16 +4751,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
@@ -4771,16 +4769,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
@@ -4789,100 +4787,100 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J87">
         <v>2</v>
@@ -4890,660 +4888,660 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D91" s="7">
         <v>663399</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D109" s="7">
         <v>696969</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5561,7 +5559,14 @@
   <dimension ref="A3:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A4:A98"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="15" previousRow="15" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5575,12 +5580,12 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -5588,7 +5593,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -5596,7 +5601,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -5604,7 +5609,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -5612,7 +5617,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -5620,7 +5625,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
@@ -5628,7 +5633,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -5636,7 +5641,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -5644,7 +5649,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -5652,7 +5657,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -5660,7 +5665,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -5668,7 +5673,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -5676,7 +5681,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -5684,7 +5689,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -5692,7 +5697,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -5700,15 +5705,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -5716,31 +5721,31 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B21" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B23" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -5748,7 +5753,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -5756,7 +5761,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -5764,7 +5769,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -5772,7 +5777,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -5780,7 +5785,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -5788,15 +5793,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B30" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B31" s="4">
         <v>2</v>
@@ -5804,15 +5809,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B32" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -5820,7 +5825,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -5828,7 +5833,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -5836,7 +5841,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -5844,7 +5849,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -5852,7 +5857,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -5860,7 +5865,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -5868,15 +5873,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="B40" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -5884,7 +5889,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -5892,7 +5897,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -5900,7 +5905,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -5908,7 +5913,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -5916,7 +5921,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -5924,7 +5929,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -5932,7 +5937,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -5940,23 +5945,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="B49" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="B50" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -5964,15 +5969,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -5980,7 +5985,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -5988,7 +5993,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -5996,15 +6001,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B56" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -6012,15 +6017,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="B58" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="B59" s="4">
         <v>5</v>
@@ -6028,23 +6033,23 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="B60" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="B61" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -6052,7 +6057,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -6060,7 +6065,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -6068,15 +6073,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B65" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -6084,31 +6089,31 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="B67" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="B68" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="B69" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -6116,7 +6121,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -6124,7 +6129,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -6132,7 +6137,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -6140,15 +6145,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="B74" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -6156,15 +6161,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B76" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -6172,15 +6177,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B78" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -6188,7 +6193,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -6196,7 +6201,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -6204,7 +6209,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -6212,15 +6217,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B83" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -6228,31 +6233,31 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B85" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B86" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B87" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -6260,7 +6265,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -6268,7 +6273,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -6276,7 +6281,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -6284,15 +6289,15 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="B92" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -6300,7 +6305,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -6308,23 +6313,23 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="B95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="B96" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -6332,10 +6337,10 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B98" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -6355,7 +6360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA1026-1AB1-FD49-A80A-9E93DF051417}">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
@@ -6368,16 +6373,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -6387,19 +6392,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
         <v>365</v>
       </c>
-      <c r="C2" t="s">
-        <v>366</v>
-      </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(B2,"-",C2,"-",D2,"-",E2)</f>
@@ -6408,19 +6413,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">CONCATENATE(B3,"-",C3,"-",D3,"-",E3)</f>
@@ -6429,19 +6434,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -6450,19 +6455,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -6471,19 +6476,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -6492,19 +6497,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -6513,19 +6518,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" t="s">
         <v>370</v>
       </c>
-      <c r="C8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D8" t="s">
-        <v>372</v>
-      </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -6534,19 +6539,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" t="s">
         <v>370</v>
       </c>
-      <c r="C9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D9" t="s">
-        <v>372</v>
-      </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -6555,16 +6560,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" t="s">
         <v>365</v>
       </c>
-      <c r="C10" t="s">
-        <v>366</v>
-      </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -6576,16 +6581,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -6597,16 +6602,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -6618,16 +6623,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -6639,16 +6644,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -6660,16 +6665,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -6681,16 +6686,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -6702,16 +6707,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" t="s">
         <v>375</v>
-      </c>
-      <c r="C17" t="s">
-        <v>377</v>
-      </c>
-      <c r="D17" t="s">
-        <v>378</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
@@ -6723,16 +6728,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
@@ -6744,16 +6749,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="B19" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
       <c r="D19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -6765,16 +6770,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -6786,16 +6791,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -6807,16 +6812,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -6828,16 +6833,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" t="s">
         <v>179</v>
       </c>
-      <c r="B23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" t="s">
-        <v>180</v>
-      </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -6849,16 +6854,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -6870,16 +6875,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C25" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -6891,16 +6896,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C26" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -6912,16 +6917,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C27" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -6933,16 +6938,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C28" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -6954,16 +6959,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C29" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -6975,16 +6980,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -6996,16 +7001,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -7017,16 +7022,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C32" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -7038,16 +7043,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -7059,16 +7064,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -7080,16 +7085,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C35" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
@@ -7101,16 +7106,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C36" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -7122,16 +7127,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C37" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -7143,16 +7148,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -7164,16 +7169,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -7185,16 +7190,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -7206,16 +7211,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C41" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -7227,16 +7232,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C42" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -7248,16 +7253,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C43" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -7269,16 +7274,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -7290,16 +7295,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" t="s">
         <v>365</v>
       </c>
-      <c r="C45" t="s">
-        <v>366</v>
-      </c>
       <c r="D45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -7311,16 +7316,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -7333,16 +7338,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C47" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -7354,16 +7359,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C48" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -7375,16 +7380,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -7396,16 +7401,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C50" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D50" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -7417,16 +7422,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B51" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C51" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D51" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -7438,16 +7443,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C52" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D52" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -7459,16 +7464,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C53" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D53" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
@@ -7480,16 +7485,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -7501,16 +7506,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -7522,16 +7527,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -7543,16 +7548,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -7564,16 +7569,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" t="s">
         <v>365</v>
       </c>
-      <c r="C58" t="s">
-        <v>366</v>
-      </c>
       <c r="D58" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -7585,16 +7590,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -7606,16 +7611,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C60" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -7627,16 +7632,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C61" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D61" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
@@ -7648,16 +7653,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -7669,16 +7674,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D63" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -7690,16 +7695,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C64" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D64" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -7711,19 +7716,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C65" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D65" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -7732,19 +7737,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C66" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -7753,19 +7758,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C67" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="1">CONCATENATE(B67,"-",C67,"-",D67,"-",E67)</f>
@@ -7774,19 +7779,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C68" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -7795,19 +7800,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -7816,19 +7821,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B70" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C70" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -7837,19 +7842,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -7858,19 +7863,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -7879,19 +7884,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C73" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -7900,19 +7905,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C74" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
@@ -7921,19 +7926,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C75" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
@@ -7942,19 +7947,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -7963,19 +7968,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C77" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -7984,19 +7989,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
@@ -8005,19 +8010,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B79" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
@@ -8026,19 +8031,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D80" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
@@ -8047,19 +8052,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C81" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D81" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
@@ -8068,19 +8073,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B82" t="s">
+        <v>364</v>
+      </c>
+      <c r="C82" t="s">
         <v>365</v>
       </c>
-      <c r="C82" t="s">
-        <v>366</v>
-      </c>
       <c r="D82" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
@@ -8089,19 +8094,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
@@ -8110,19 +8115,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C84" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
@@ -8131,19 +8136,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D85" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
@@ -8152,19 +8157,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C86" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D86" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
@@ -8173,19 +8178,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C87" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D87" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
@@ -8194,19 +8199,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C88" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D88" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
@@ -8215,19 +8220,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C89" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D89" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
@@ -8236,19 +8241,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B90" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C90" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D90" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
@@ -8257,19 +8262,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C91" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D91" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
@@ -8278,19 +8283,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B92" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
@@ -8299,19 +8304,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D93" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
@@ -8320,19 +8325,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B94" t="s">
+        <v>368</v>
+      </c>
+      <c r="C94" t="s">
+        <v>464</v>
+      </c>
+      <c r="D94" t="s">
         <v>370</v>
       </c>
-      <c r="C94" t="s">
-        <v>477</v>
-      </c>
-      <c r="D94" t="s">
-        <v>372</v>
-      </c>
       <c r="E94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
@@ -8341,19 +8346,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D95" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
@@ -8362,19 +8367,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C96" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D96" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
@@ -8383,19 +8388,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D97" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
@@ -8404,19 +8409,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C98" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D98" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
@@ -8425,19 +8430,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B99" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
@@ -8446,19 +8451,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B100" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D100" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
@@ -8467,19 +8472,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C101" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D101" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
@@ -8488,19 +8493,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B102" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C102" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D102" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
@@ -8509,19 +8514,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C103" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D103" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
@@ -8530,19 +8535,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C104" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D104" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
@@ -8551,19 +8556,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C105" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D105" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
@@ -8572,19 +8577,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B106" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D106" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
@@ -8593,19 +8598,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C107" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D107" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
@@ -8614,19 +8619,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B108" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C108" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
@@ -8635,19 +8640,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C109" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
@@ -8656,19 +8661,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B110" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C110" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
@@ -8677,19 +8682,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B111" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D111" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
@@ -8698,19 +8703,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B112" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C112" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D112" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
@@ -8719,19 +8724,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C113" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D113" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
@@ -8740,19 +8745,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B114" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C114" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D114" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
@@ -8761,19 +8766,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B115" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C115" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D115" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
@@ -8782,19 +8787,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C116" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
@@ -8803,19 +8808,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C117" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D117" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
@@ -8824,19 +8829,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B118" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D118" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
@@ -8845,19 +8850,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B119" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C119" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D119" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
@@ -8866,19 +8871,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B120" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C120" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D120" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
@@ -8887,19 +8892,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B121" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
@@ -8908,19 +8913,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B122" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C122" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
@@ -8929,19 +8934,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B123" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C123" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
@@ -8950,19 +8955,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C124" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
@@ -8971,19 +8976,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C125" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
@@ -8992,19 +8997,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C126" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
@@ -9013,19 +9018,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B127" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C127" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
@@ -9034,19 +9039,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B128" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C128" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
@@ -9055,19 +9060,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B129" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
@@ -9076,19 +9081,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B130" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C130" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
@@ -9097,19 +9102,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B131" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D131" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F158" si="2">CONCATENATE(B131,"-",C131,"-",D131,"-",E131)</f>
@@ -9118,19 +9123,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C132" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
@@ -9139,19 +9144,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C133" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D133" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
@@ -9160,19 +9165,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B134" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D134" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
@@ -9181,19 +9186,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
@@ -9202,19 +9207,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B136" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C136" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D136" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
@@ -9223,19 +9228,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B137" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C137" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D137" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
@@ -9244,19 +9249,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B138" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D138" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
@@ -9265,19 +9270,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B139" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C139" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D139" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
@@ -9286,19 +9291,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B140" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C140" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D140" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E140" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
@@ -9307,19 +9312,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B141" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C141" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D141" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
@@ -9328,19 +9333,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B142" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C142" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D142" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E142" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
@@ -9349,19 +9354,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B143" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D143" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
@@ -9370,19 +9375,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B144" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C144" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D144" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
@@ -9391,19 +9396,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B145" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C145" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D145" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
@@ -9412,19 +9417,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B146" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C146" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D146" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
@@ -9433,19 +9438,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
@@ -9454,19 +9459,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B148" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C148" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D148" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
@@ -9475,19 +9480,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B149" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C149" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D149" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
@@ -9496,19 +9501,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B150" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C150" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D150" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
@@ -9517,19 +9522,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B151" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C151" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D151" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
@@ -9538,19 +9543,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B152" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C152" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E152" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
@@ -9559,19 +9564,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B153" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C153" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D153" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
@@ -9580,19 +9585,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B154" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C154" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
@@ -9601,19 +9606,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B155" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C155" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D155" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E155" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
@@ -9622,19 +9627,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B156" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C156" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D156" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E156" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
@@ -9643,19 +9648,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B157" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C157" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D157" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
@@ -9664,19 +9669,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B158" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C158" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D158" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
@@ -9685,441 +9690,441 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B159" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C159" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D159" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C160" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D160" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B161" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C161" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D161" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E161" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B162" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C162" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D162" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B163" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C163" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D163" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B164" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C164" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D164" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E164" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B165" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C165" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D165" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E165" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C166" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D166" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B167" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C167" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D167" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C168" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D168" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E168" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B169" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C169" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D169" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B170" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D170" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E170" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B171" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D171" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E171" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B172" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D172" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E172" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D173" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E173" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D174" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E174" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B175" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C175" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D175" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E175" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B176" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C176" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D176" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E176" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B177" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C177" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D177" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E177" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B178" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D178" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E178" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B179" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C179" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D179" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E179" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D180" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E180" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D181" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E181" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B182" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C182" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D182" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E182" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B183" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C183" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D183" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B184" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C184" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D184" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -10127,33 +10132,33 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B185" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C185" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D185" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E185" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C186" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D186" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
@@ -10161,127 +10166,127 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C187" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D187" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E187" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D188" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E188" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D189" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E189" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C190" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D190" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E190" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B191" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D191" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E191" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B192" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C192" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D192" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E192" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B193" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D193" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E193" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H158" xr:uid="{C007BFF4-3056-9B46-9A84-D2F5B4142D7C}"/>
   <conditionalFormatting sqref="E126:E128 E146 E117 E113 E91:E93 E108:E110 E61:E62 E70 E78 E49:E51 E38 E34 E11:E12 E5">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="machine learning">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="machine learning">
       <formula>NOT(ISERROR(SEARCH("machine learning",E5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/d3/cnr_d3.xlsx
+++ b/d3/cnr_d3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m176320/Documents/GitHub/sunyang_site/sunyangfu.github.io/d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0868C6FA-262A-5249-958E-6C758D1E34F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15107114-8BFA-BF4E-893B-21D1C5EF281A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="1" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="501">
   <si>
     <t>Disease</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>EEE8AA</t>
-  </si>
-  <si>
-    <t>F0E68C</t>
   </si>
   <si>
     <t>E6E6FA</t>
@@ -3219,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -3233,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3247,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3261,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3275,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3286,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,10 +3294,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3308,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3330,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3341,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3363,10 +3360,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3374,10 +3371,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3385,10 +3382,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3396,10 +3393,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3407,98 +3404,98 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3506,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3514,108 +3511,108 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
@@ -3623,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
@@ -3631,31 +3628,31 @@
         <v>4</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3688,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F923B06-6A46-AE4D-AA45-C7438FDA473B}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3700,19 +3697,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
@@ -3721,19 +3718,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="0">CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -3742,19 +3739,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
@@ -3763,19 +3760,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -3784,19 +3781,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -3805,19 +3802,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -3826,19 +3823,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -3847,19 +3844,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -3868,19 +3865,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3889,19 +3886,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -3910,19 +3907,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -3931,19 +3928,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -3952,19 +3949,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -3973,19 +3970,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -3994,19 +3991,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -4015,19 +4012,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -4036,19 +4033,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -4057,19 +4054,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -4078,19 +4075,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -4099,19 +4096,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -4120,19 +4117,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4141,19 +4138,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -4162,19 +4159,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -4183,19 +4180,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -4204,19 +4201,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -4225,19 +4222,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -4246,19 +4243,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -4267,19 +4264,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -4288,19 +4285,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -4309,19 +4306,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -4330,19 +4327,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -4351,19 +4348,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -4372,19 +4369,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -4393,19 +4390,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -4414,19 +4411,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -4435,19 +4432,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -4456,19 +4453,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -4477,19 +4474,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -4498,19 +4495,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -4519,30 +4516,40 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
       <c r="D40" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="str">
+        <f>CONCATENATE(A40,B40,C40,D40,E40)</f>
+        <v>"Dictionary": "#7CFC00",</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -4551,19 +4558,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -4572,19 +4579,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -4593,19 +4600,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -4614,52 +4621,28 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>"": "#F0E68C",</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>"": "#D8BFD8",</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -4668,16 +4651,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -4686,16 +4669,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -4704,16 +4687,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -4722,16 +4705,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -4740,16 +4723,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="7">
         <v>191970</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -4758,16 +4741,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -4776,16 +4759,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="7">
         <v>800080</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -4794,16 +4777,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -4812,16 +4795,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -4830,16 +4813,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -4848,16 +4831,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -4866,16 +4849,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -4884,16 +4867,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -4902,16 +4885,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -4920,16 +4903,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -4938,16 +4921,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -4956,16 +4939,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -4974,16 +4957,16 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -4995,16 +4978,16 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ref="F66:F80" si="1">CONCATENATE(A66,B66,C66,D66,E66)</f>
@@ -5013,16 +4996,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D67" s="7">
         <v>808080</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="1"/>
@@ -5031,16 +5014,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -5049,16 +5032,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -5067,16 +5050,16 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -5085,16 +5068,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -5103,16 +5086,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -5121,16 +5104,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -5139,16 +5122,16 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
@@ -5157,16 +5140,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
@@ -5175,16 +5158,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -5193,16 +5176,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -5211,16 +5194,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
@@ -5229,16 +5212,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
@@ -5247,16 +5230,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
@@ -5265,100 +5248,100 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J87">
         <v>2</v>
@@ -5366,660 +5349,660 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" s="7">
         <v>663399</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="7">
         <v>696969</v>
       </c>
       <c r="E109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C126" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C127" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6049,10 +6032,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="10">
         <v>224255255</v>
@@ -6060,10 +6043,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="10">
         <v>175238238</v>
@@ -6071,10 +6054,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="10">
         <v>127255212</v>
@@ -6082,10 +6065,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="10">
         <v>64224208</v>
@@ -6093,10 +6076,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10">
         <v>72209204</v>
@@ -6104,21 +6087,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="10">
         <v>95158160</v>
@@ -6126,10 +6109,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="10">
         <v>70130180</v>
@@ -6137,10 +6120,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10">
         <v>176196222</v>
@@ -6148,10 +6131,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="10">
         <v>176224230</v>
@@ -6159,10 +6142,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="10">
         <v>173216230</v>
@@ -6170,10 +6153,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10">
         <v>135206235</v>
@@ -6181,10 +6164,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="10">
         <v>135206250</v>
@@ -6192,21 +6175,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="10">
         <v>30144255</v>
@@ -6214,10 +6197,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="10">
         <v>100149237</v>
@@ -6225,7 +6208,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B17" s="11">
         <v>41690</v>
@@ -6236,29 +6219,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>19</v>
@@ -6269,7 +6252,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>20</v>
@@ -6280,7 +6263,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>21</v>
@@ -6291,7 +6274,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>22</v>
@@ -6302,7 +6285,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>23</v>
@@ -6313,7 +6296,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>24</v>
@@ -6324,10 +6307,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="10">
         <v>152251152</v>
@@ -6335,10 +6318,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="10">
         <v>144238144</v>
@@ -6346,32 +6329,32 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="10">
         <v>60179113</v>
@@ -6379,21 +6362,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="10">
         <v>216191216</v>
@@ -6401,10 +6384,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="10">
         <v>221160221</v>
@@ -6412,10 +6395,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="10">
         <v>238130238</v>
@@ -6423,10 +6406,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="10">
         <v>218112214</v>
@@ -6434,35 +6417,35 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -7409,12 +7392,12 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -7422,7 +7405,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -7430,7 +7413,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -7438,7 +7421,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="4">
         <v>16</v>
@@ -7446,7 +7429,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -7454,7 +7437,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -7462,7 +7445,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -7470,7 +7453,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -7478,7 +7461,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -7486,7 +7469,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -7494,7 +7477,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -7502,7 +7485,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -7510,7 +7493,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -7518,7 +7501,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -7526,7 +7509,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -7534,7 +7517,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -7542,7 +7525,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -7550,7 +7533,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -7558,7 +7541,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -7566,7 +7549,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -7574,7 +7557,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -7582,7 +7565,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -7590,7 +7573,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -7598,7 +7581,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -7606,7 +7589,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -7614,7 +7597,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -7622,7 +7605,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -7630,7 +7613,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -7638,7 +7621,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -7646,7 +7629,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B33" s="4">
         <v>2</v>
@@ -7654,7 +7637,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -7662,7 +7645,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -7670,7 +7653,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -7678,7 +7661,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -7686,7 +7669,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -7694,7 +7677,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39" s="4">
         <v>2</v>
@@ -7702,7 +7685,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
@@ -7710,7 +7693,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -7718,7 +7701,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
@@ -7726,7 +7709,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -7734,7 +7717,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
@@ -7742,7 +7725,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -7750,7 +7733,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -7758,7 +7741,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B47" s="4">
         <v>2</v>
@@ -7766,7 +7749,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -7774,7 +7757,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -7782,7 +7765,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -7790,7 +7773,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -7798,7 +7781,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -7806,7 +7789,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -7814,7 +7797,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -7822,7 +7805,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -7830,7 +7813,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B56" s="4">
         <v>2</v>
@@ -7838,7 +7821,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -7846,7 +7829,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B58" s="4">
         <v>3</v>
@@ -7854,7 +7837,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B59" s="4">
         <v>5</v>
@@ -7862,7 +7845,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B60" s="4">
         <v>4</v>
@@ -7870,7 +7853,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -7878,7 +7861,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -7886,7 +7869,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
@@ -7894,7 +7877,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -7902,7 +7885,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -7910,7 +7893,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -7918,7 +7901,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -7926,7 +7909,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B68" s="4">
         <v>2</v>
@@ -7934,7 +7917,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -7942,7 +7925,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -7950,7 +7933,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -7958,7 +7941,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -7966,7 +7949,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B73" s="4">
         <v>2</v>
@@ -7974,7 +7957,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -7982,7 +7965,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -7990,7 +7973,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B76" s="4">
         <v>3</v>
@@ -7998,7 +7981,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -8006,7 +7989,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B78" s="4">
         <v>6</v>
@@ -8014,7 +7997,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -8022,7 +8005,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B80" s="4">
         <v>2</v>
@@ -8030,7 +8013,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -8038,7 +8021,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -8046,7 +8029,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -8054,7 +8037,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -8062,7 +8045,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -8070,7 +8053,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B86" s="4">
         <v>2</v>
@@ -8078,7 +8061,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B87" s="4">
         <v>3</v>
@@ -8086,7 +8069,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -8094,7 +8077,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -8102,7 +8085,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -8110,7 +8093,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -8118,7 +8101,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -8126,7 +8109,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -8134,7 +8117,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -8142,7 +8125,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B95" s="4">
         <v>2</v>
@@ -8150,7 +8133,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B96" s="4">
         <v>5</v>
@@ -8158,7 +8141,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B97" s="4">
         <v>2</v>
@@ -8166,7 +8149,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -8174,7 +8157,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -8182,7 +8165,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -8190,7 +8173,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B101" s="4">
         <v>2</v>
@@ -8198,7 +8181,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
@@ -8206,7 +8189,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B103" s="4">
         <v>1</v>
@@ -8214,7 +8197,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
@@ -8222,7 +8205,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B105" s="4">
         <v>2</v>
@@ -8230,7 +8213,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B106" s="4">
         <v>1</v>
@@ -8238,7 +8221,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B107" s="4">
         <v>1</v>
@@ -8246,7 +8229,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B108" s="4">
         <v>3</v>
@@ -8254,7 +8237,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B109" s="4">
         <v>1</v>
@@ -8262,7 +8245,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B110" s="4">
         <v>4</v>
@@ -8270,7 +8253,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B111" s="4">
         <v>1</v>
@@ -8278,7 +8261,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B112" s="4">
         <v>2</v>
@@ -8286,7 +8269,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B113" s="4">
         <v>1</v>
@@ -8294,7 +8277,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B114" s="4">
         <v>1</v>
@@ -8302,7 +8285,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B115" s="4">
         <v>1</v>
@@ -8310,7 +8293,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
@@ -8318,7 +8301,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B117" s="4">
         <v>1</v>
@@ -8326,7 +8309,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B118" s="4">
         <v>1</v>
@@ -8334,7 +8317,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B119" s="4">
         <v>1</v>
@@ -8342,7 +8325,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B120" s="4">
         <v>1</v>
@@ -8379,16 +8362,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -8398,16 +8381,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -8419,16 +8402,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -8440,16 +8423,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -8461,16 +8444,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -8482,16 +8465,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -8504,16 +8487,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -8525,19 +8508,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" t="str">
         <f>CONCATENATE(B8,"-",C8,"-",D8,"-",E8)</f>
@@ -8546,19 +8529,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" t="str">
         <f>CONCATENATE(B9,"-",C9,"-",D9,"-",E9)</f>
@@ -8567,19 +8550,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" t="str">
         <f>CONCATENATE(B10,"-",C10,"-",D10,"-",E10)</f>
@@ -8588,19 +8571,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" t="str">
         <f>CONCATENATE(B11,"-",C11,"-",D11,"-",E11)</f>
@@ -8609,19 +8592,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" t="str">
         <f>CONCATENATE(B12,"-",C12,"-",D12,"-",E12)</f>
@@ -8630,19 +8613,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" t="str">
         <f>CONCATENATE(B13,"-",C13,"-",D13,"-",E13)</f>
@@ -8651,19 +8634,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="str">
         <f>CONCATENATE(B14,"-",C14,"-",D14,"-",E14)</f>
@@ -8672,19 +8655,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" t="str">
         <f>CONCATENATE(B15,"-",C15,"-",D15,"-",E15)</f>
@@ -8693,19 +8676,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE(B16,"-",C16,"-",D16,"-",E16)</f>
@@ -8714,19 +8697,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" t="str">
         <f>CONCATENATE(B17,"-",C17,"-",D17,"-",E17)</f>
@@ -8735,19 +8718,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" t="str">
         <f>CONCATENATE(B18,"-",C18,"-",D18,"-",E18)</f>
@@ -8756,19 +8739,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" t="str">
         <f>CONCATENATE(B19,"-",C19,"-",D19,"-",E19)</f>
@@ -8777,19 +8760,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" t="str">
         <f>CONCATENATE(B20,"-",C20,"-",D20,"-",E20)</f>
@@ -8798,19 +8781,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" t="str">
         <f>CONCATENATE(B21,"-",C21,"-",D21,"-",E21)</f>
@@ -8819,19 +8802,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" t="str">
         <f>CONCATENATE(B22,"-",C22,"-",D22,"-",E22)</f>
@@ -8840,19 +8823,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" t="str">
         <f>CONCATENATE(B23,"-",C23,"-",D23,"-",E23)</f>
@@ -8861,19 +8844,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" t="str">
         <f>CONCATENATE(B24,"-",C24,"-",D24,"-",E24)</f>
@@ -8882,19 +8865,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" t="str">
         <f>CONCATENATE(B25,"-",C25,"-",D25,"-",E25)</f>
@@ -8903,19 +8886,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" t="str">
         <f>CONCATENATE(B26,"-",C26,"-",D26,"-",E26)</f>
@@ -8924,19 +8907,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" t="str">
         <f>CONCATENATE(B27,"-",C27,"-",D27,"-",E27)</f>
@@ -8945,19 +8928,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" t="str">
         <f>CONCATENATE(B28,"-",C28,"-",D28,"-",E28)</f>
@@ -8966,19 +8949,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" t="str">
         <f>CONCATENATE(B29,"-",C29,"-",D29,"-",E29)</f>
@@ -8987,16 +8970,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -9008,16 +8991,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -9029,16 +9012,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -9050,19 +9033,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" t="str">
         <f>CONCATENATE(B33,"-",C33,"-",D33,"-",E33)</f>
@@ -9071,19 +9054,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" t="str">
         <f>CONCATENATE(B34,"-",C34,"-",D34,"-",E34)</f>
@@ -9092,19 +9075,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" t="str">
         <f>CONCATENATE(B35,"-",C35,"-",D35,"-",E35)</f>
@@ -9113,16 +9096,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -9134,19 +9117,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" t="str">
         <f>CONCATENATE(B37,"-",C37,"-",D37,"-",E37)</f>
@@ -9155,16 +9138,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -9176,16 +9159,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -9197,19 +9180,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" t="str">
         <f>CONCATENATE(B40,"-",C40,"-",D40,"-",E40)</f>
@@ -9218,19 +9201,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" t="str">
         <f>CONCATENATE(B41,"-",C41,"-",D41,"-",E41)</f>
@@ -9239,19 +9222,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" t="str">
         <f>CONCATENATE(B42,"-",C42,"-",D42,"-",E42)</f>
@@ -9260,19 +9243,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" t="str">
         <f>CONCATENATE(B43,"-",C43,"-",D43,"-",E43)</f>
@@ -9281,19 +9264,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" t="str">
         <f>CONCATENATE(B44,"-",C44,"-",D44,"-",E44)</f>
@@ -9302,16 +9285,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -9323,16 +9306,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -9344,19 +9327,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" t="str">
         <f>CONCATENATE(B47,"-",C47,"-",D47,"-",E47)</f>
@@ -9365,16 +9348,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -9386,19 +9369,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" t="str">
         <f>CONCATENATE(B49,"-",C49,"-",D49,"-",E49)</f>
@@ -9407,19 +9390,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" t="str">
         <f>CONCATENATE(B50,"-",C50,"-",D50,"-",E50)</f>
@@ -9428,19 +9411,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" t="str">
         <f>CONCATENATE(B51,"-",C51,"-",D51,"-",E51)</f>
@@ -9449,19 +9432,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" t="str">
         <f>CONCATENATE(B52,"-",C52,"-",D52,"-",E52)</f>
@@ -9470,19 +9453,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" t="str">
         <f>CONCATENATE(B53,"-",C53,"-",D53,"-",E53)</f>
@@ -9491,19 +9474,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F54" t="str">
         <f>CONCATENATE(B54,"-",C54,"-",D54,"-",E54)</f>
@@ -9512,19 +9495,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F55" t="str">
         <f>CONCATENATE(B55,"-",C55,"-",D55,"-",E55)</f>
@@ -9533,19 +9516,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F56" t="str">
         <f>CONCATENATE(B56,"-",C56,"-",D56,"-",E56)</f>
@@ -9554,19 +9537,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" t="str">
         <f>CONCATENATE(B57,"-",C57,"-",D57,"-",E57)</f>
@@ -9575,19 +9558,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" t="str">
         <f>CONCATENATE(B58,"-",C58,"-",D58,"-",E58)</f>
@@ -9596,16 +9579,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
@@ -9617,16 +9600,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -9638,16 +9621,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -9659,16 +9642,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -9680,19 +9663,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F63" t="str">
         <f>CONCATENATE(B63,"-",C63,"-",D63,"-",E63)</f>
@@ -9701,19 +9684,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" t="str">
         <f>CONCATENATE(B64,"-",C64,"-",D64,"-",E64)</f>
@@ -9722,19 +9705,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F65" t="str">
         <f>CONCATENATE(B65,"-",C65,"-",D65,"-",E65)</f>
@@ -9743,19 +9726,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F66" t="str">
         <f>CONCATENATE(B66,"-",C66,"-",D66,"-",E66)</f>
@@ -9764,19 +9747,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F67" t="str">
         <f>CONCATENATE(B67,"-",C67,"-",D67,"-",E67)</f>
@@ -9785,19 +9768,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F68" t="str">
         <f>CONCATENATE(B68,"-",C68,"-",D68,"-",E68)</f>
@@ -9806,19 +9789,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F69" t="str">
         <f>CONCATENATE(B69,"-",C69,"-",D69,"-",E69)</f>
@@ -9827,19 +9810,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F70" t="str">
         <f>CONCATENATE(B70,"-",C70,"-",D70,"-",E70)</f>
@@ -9848,19 +9831,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F71" t="str">
         <f>CONCATENATE(B71,"-",C71,"-",D71,"-",E71)</f>
@@ -9869,16 +9852,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -9890,19 +9873,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F73" t="str">
         <f>CONCATENATE(B73,"-",C73,"-",D73,"-",E73)</f>
@@ -9911,19 +9894,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F74" t="str">
         <f>CONCATENATE(B74,"-",C74,"-",D74,"-",E74)</f>
@@ -9932,19 +9915,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75" t="str">
         <f>CONCATENATE(B75,"-",C75,"-",D75,"-",E75)</f>
@@ -9953,19 +9936,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F76" t="str">
         <f>CONCATENATE(B76,"-",C76,"-",D76,"-",E76)</f>
@@ -9974,16 +9957,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -9995,19 +9978,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F78" t="str">
         <f>CONCATENATE(B78,"-",C78,"-",D78,"-",E78)</f>
@@ -10016,19 +9999,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79" t="str">
         <f>CONCATENATE(B79,"-",C79,"-",D79,"-",E79)</f>
@@ -10037,19 +10020,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F80" t="str">
         <f>CONCATENATE(B80,"-",C80,"-",D80,"-",E80)</f>
@@ -10058,19 +10041,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F81" t="str">
         <f>CONCATENATE(B81,"-",C81,"-",D81,"-",E81)</f>
@@ -10079,19 +10062,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F82" t="str">
         <f>CONCATENATE(B82,"-",C82,"-",D82,"-",E82)</f>
@@ -10100,19 +10083,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F83" t="str">
         <f>CONCATENATE(B83,"-",C83,"-",D83,"-",E83)</f>
@@ -10121,19 +10104,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F84" t="str">
         <f>CONCATENATE(B84,"-",C84,"-",D84,"-",E84)</f>
@@ -10142,19 +10125,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F85" t="str">
         <f>CONCATENATE(B85,"-",C85,"-",D85,"-",E85)</f>
@@ -10163,19 +10146,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F86" t="str">
         <f>CONCATENATE(B86,"-",C86,"-",D86,"-",E86)</f>
@@ -10184,19 +10167,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F87" t="str">
         <f>CONCATENATE(B87,"-",C87,"-",D87,"-",E87)</f>
@@ -10205,16 +10188,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -10226,19 +10209,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F89" t="str">
         <f>CONCATENATE(B89,"-",C89,"-",D89,"-",E89)</f>
@@ -10247,16 +10230,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E90" t="s">
         <v>2</v>
@@ -10268,16 +10251,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D91" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -10289,16 +10272,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -10310,19 +10293,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE(B93,"-",C93,"-",D93,"-",E93)</f>
@@ -10331,19 +10314,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B94" t="s">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94" t="str">
         <f>CONCATENATE(B94,"-",C94,"-",D94,"-",E94)</f>
@@ -10352,19 +10335,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D95" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F95" t="str">
         <f>CONCATENATE(B95,"-",C95,"-",D95,"-",E95)</f>
@@ -10373,19 +10356,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" t="str">
         <f>CONCATENATE(B96,"-",C96,"-",D96,"-",E96)</f>
@@ -10394,19 +10377,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F97" t="str">
         <f>CONCATENATE(B97,"-",C97,"-",D97,"-",E97)</f>
@@ -10415,19 +10398,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F98" t="str">
         <f>CONCATENATE(B98,"-",C98,"-",D98,"-",E98)</f>
@@ -10436,19 +10419,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D99" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F99" t="str">
         <f>CONCATENATE(B99,"-",C99,"-",D99,"-",E99)</f>
@@ -10457,19 +10440,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F100" t="str">
         <f>CONCATENATE(B100,"-",C100,"-",D100,"-",E100)</f>
@@ -10478,19 +10461,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D101" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F101" t="str">
         <f>CONCATENATE(B101,"-",C101,"-",D101,"-",E101)</f>
@@ -10499,19 +10482,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D102" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F102" t="str">
         <f>CONCATENATE(B102,"-",C102,"-",D102,"-",E102)</f>
@@ -10520,16 +10503,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D103" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -10541,19 +10524,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F104" t="str">
         <f>CONCATENATE(B104,"-",C104,"-",D104,"-",E104)</f>
@@ -10562,16 +10545,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
@@ -10583,19 +10566,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F106" t="str">
         <f>CONCATENATE(B106,"-",C106,"-",D106,"-",E106)</f>
@@ -10604,16 +10587,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
@@ -10625,19 +10608,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D108" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F108" t="str">
         <f>CONCATENATE(B108,"-",C108,"-",D108,"-",E108)</f>
@@ -10646,19 +10629,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D109" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F109" t="str">
         <f>CONCATENATE(B109,"-",C109,"-",D109,"-",E109)</f>
@@ -10667,19 +10650,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F110" t="str">
         <f>CONCATENATE(B110,"-",C110,"-",D110,"-",E110)</f>
@@ -10688,19 +10671,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F111" t="str">
         <f>CONCATENATE(B111,"-",C111,"-",D111,"-",E111)</f>
@@ -10709,19 +10692,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D112" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F112" t="str">
         <f>CONCATENATE(B112,"-",C112,"-",D112,"-",E112)</f>
@@ -10730,19 +10713,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F113" t="str">
         <f>CONCATENATE(B113,"-",C113,"-",D113,"-",E113)</f>
@@ -10751,19 +10734,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F114" t="str">
         <f>CONCATENATE(B114,"-",C114,"-",D114,"-",E114)</f>
@@ -10772,19 +10755,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F115" t="str">
         <f>CONCATENATE(B115,"-",C115,"-",D115,"-",E115)</f>
@@ -10793,19 +10776,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F116" t="str">
         <f>CONCATENATE(B116,"-",C116,"-",D116,"-",E116)</f>
@@ -10814,19 +10797,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F117" t="str">
         <f>CONCATENATE(B117,"-",C117,"-",D117,"-",E117)</f>
@@ -10835,16 +10818,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
@@ -10856,16 +10839,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
@@ -10877,16 +10860,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -10898,16 +10881,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
@@ -10919,19 +10902,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F122" t="str">
         <f>CONCATENATE(B122,"-",C122,"-",D122,"-",E122)</f>
@@ -10940,19 +10923,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D123" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F123" t="str">
         <f>CONCATENATE(B123,"-",C123,"-",D123,"-",E123)</f>
@@ -10961,19 +10944,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D124" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E124" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F124" t="str">
         <f>CONCATENATE(B124,"-",C124,"-",D124,"-",E124)</f>
@@ -10982,19 +10965,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F125" t="str">
         <f>CONCATENATE(B125,"-",C125,"-",D125,"-",E125)</f>
@@ -11003,19 +10986,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F126" t="str">
         <f>CONCATENATE(B126,"-",C126,"-",D126,"-",E126)</f>
@@ -11024,19 +11007,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F127" t="str">
         <f>CONCATENATE(B127,"-",C127,"-",D127,"-",E127)</f>
@@ -11045,19 +11028,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D128" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F128" t="str">
         <f>CONCATENATE(B128,"-",C128,"-",D128,"-",E128)</f>
@@ -11066,16 +11049,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D129" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -11087,19 +11070,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D130" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F130" t="str">
         <f>CONCATENATE(B130,"-",C130,"-",D130,"-",E130)</f>
@@ -11108,19 +11091,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D131" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F131" t="str">
         <f>CONCATENATE(B131,"-",C131,"-",D131,"-",E131)</f>
@@ -11129,19 +11112,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D132" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F132" t="str">
         <f>CONCATENATE(B132,"-",C132,"-",D132,"-",E132)</f>
@@ -11150,16 +11133,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E133" t="s">
         <v>4</v>
@@ -11171,19 +11154,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E134" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F134" t="str">
         <f>CONCATENATE(B134,"-",C134,"-",D134,"-",E134)</f>
@@ -11192,19 +11175,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F135" t="str">
         <f>CONCATENATE(B135,"-",C135,"-",D135,"-",E135)</f>
@@ -11213,16 +11196,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D136" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -11234,16 +11217,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D137" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E137" t="s">
         <v>4</v>
@@ -11255,19 +11238,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D138" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F138" t="str">
         <f>CONCATENATE(B138,"-",C138,"-",D138,"-",E138)</f>
@@ -11276,16 +11259,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C139" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D139" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E139" t="s">
         <v>4</v>
@@ -11297,19 +11280,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C140" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D140" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F140" t="str">
         <f>CONCATENATE(B140,"-",C140,"-",D140,"-",E140)</f>
@@ -11318,19 +11301,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D141" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E141" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F141" t="str">
         <f>CONCATENATE(B141,"-",C141,"-",D141,"-",E141)</f>
@@ -11339,16 +11322,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D142" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E142" t="s">
         <v>4</v>
@@ -11360,19 +11343,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C143" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F143" t="str">
         <f>CONCATENATE(B143,"-",C143,"-",D143,"-",E143)</f>
@@ -11381,16 +11364,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C144" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D144" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E144" t="s">
         <v>4</v>
@@ -11402,16 +11385,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B145" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C145" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E145" t="s">
         <v>4</v>
@@ -11423,19 +11406,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B146" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C146" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D146" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E146" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F146" t="str">
         <f>CONCATENATE(B146,"-",C146,"-",D146,"-",E146)</f>
@@ -11444,19 +11427,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B147" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D147" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E147" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F147" t="str">
         <f>CONCATENATE(B147,"-",C147,"-",D147,"-",E147)</f>
@@ -11465,19 +11448,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B148" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D148" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E148" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F148" t="str">
         <f>CONCATENATE(B148,"-",C148,"-",D148,"-",E148)</f>
@@ -11486,19 +11469,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C149" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D149" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E149" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F149" t="str">
         <f>CONCATENATE(B149,"-",C149,"-",D149,"-",E149)</f>
@@ -11507,19 +11490,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C150" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D150" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E150" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F150" t="str">
         <f>CONCATENATE(B150,"-",C150,"-",D150,"-",E150)</f>
@@ -11528,16 +11511,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B151" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C151" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E151" t="s">
         <v>4</v>
@@ -11549,16 +11532,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C152" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D152" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E152" t="s">
         <v>4</v>
@@ -11570,16 +11553,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B153" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C153" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D153" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E153" t="s">
         <v>4</v>
@@ -11591,16 +11574,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C154" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D154" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E154" t="s">
         <v>4</v>
@@ -11612,16 +11595,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C155" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D155" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E155" t="s">
         <v>4</v>
@@ -11633,19 +11616,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B156" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D156" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E156" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F156" t="str">
         <f>CONCATENATE(B156,"-",C156,"-",D156,"-",E156)</f>
@@ -11654,19 +11637,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D157" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E157" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F157" t="str">
         <f>CONCATENATE(B157,"-",C157,"-",D157,"-",E157)</f>
@@ -11675,19 +11658,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D158" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E158" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F158" t="str">
         <f>CONCATENATE(B158,"-",C158,"-",D158,"-",E158)</f>
@@ -11696,19 +11679,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B159" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D159" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F159" t="str">
         <f>CONCATENATE(B159,"-",C159,"-",D159,"-",E159)</f>
@@ -11717,16 +11700,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C160" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D160" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
@@ -11738,16 +11721,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B161" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C161" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D161" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E161" t="s">
         <v>4</v>
@@ -11759,16 +11742,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D162" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E162" t="s">
         <v>4</v>
@@ -11780,16 +11763,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D163" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E163" t="s">
         <v>4</v>
@@ -11801,19 +11784,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B164" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C164" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D164" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E164" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F164" t="str">
         <f>CONCATENATE(B164,"-",C164,"-",D164,"-",E164)</f>
@@ -11822,19 +11805,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B165" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C165" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D165" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E165" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F165" t="str">
         <f>CONCATENATE(B165,"-",C165,"-",D165,"-",E165)</f>
@@ -11843,19 +11826,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B166" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C166" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D166" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E166" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F166" t="str">
         <f>CONCATENATE(B166,"-",C166,"-",D166,"-",E166)</f>
@@ -11864,19 +11847,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B167" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C167" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D167" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F167" t="str">
         <f>CONCATENATE(B167,"-",C167,"-",D167,"-",E167)</f>
@@ -11885,19 +11868,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C168" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D168" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E168" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F168" t="str">
         <f>CONCATENATE(B168,"-",C168,"-",D168,"-",E168)</f>
@@ -11906,19 +11889,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B169" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C169" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D169" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F169" t="str">
         <f>CONCATENATE(B169,"-",C169,"-",D169,"-",E169)</f>
@@ -11927,19 +11910,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B170" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C170" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E170" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F170" t="str">
         <f>CONCATENATE(B170,"-",C170,"-",D170,"-",E170)</f>
@@ -11948,19 +11931,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E171" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F171" t="str">
         <f>CONCATENATE(B171,"-",C171,"-",D171,"-",E171)</f>
@@ -11969,16 +11952,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B172" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C172" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D172" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E172" t="s">
         <v>2</v>
@@ -11990,16 +11973,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B173" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C173" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D173" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E173" t="s">
         <v>4</v>
@@ -12011,19 +11994,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B174" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C174" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D174" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E174" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F174" t="str">
         <f>CONCATENATE(B174,"-",C174,"-",D174,"-",E174)</f>
@@ -12032,16 +12015,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D175" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E175" t="s">
         <v>4</v>
@@ -12053,19 +12036,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B176" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C176" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D176" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E176" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F176" t="str">
         <f>CONCATENATE(B176,"-",C176,"-",D176,"-",E176)</f>
@@ -12074,19 +12057,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B177" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D177" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E177" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F177" t="str">
         <f>CONCATENATE(B177,"-",C177,"-",D177,"-",E177)</f>
@@ -12095,19 +12078,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B178" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C178" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D178" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E178" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F178" t="str">
         <f>CONCATENATE(B178,"-",C178,"-",D178,"-",E178)</f>
@@ -12116,16 +12099,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B179" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C179" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D179" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E179" t="s">
         <v>4</v>
@@ -12137,19 +12120,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B180" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C180" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D180" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E180" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F180" t="str">
         <f>CONCATENATE(B180,"-",C180,"-",D180,"-",E180)</f>
@@ -12158,19 +12141,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B181" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C181" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D181" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F181" t="str">
         <f>CONCATENATE(B181,"-",C181,"-",D181,"-",E181)</f>
@@ -12179,19 +12162,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B182" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C182" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E182" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F182" t="str">
         <f>CONCATENATE(B182,"-",C182,"-",D182,"-",E182)</f>
@@ -12200,19 +12183,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B183" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C183" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D183" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E183" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F183" t="str">
         <f>CONCATENATE(B183,"-",C183,"-",D183,"-",E183)</f>
@@ -12221,16 +12204,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B184" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C184" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D184" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E184" t="s">
         <v>2</v>
@@ -12242,19 +12225,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B185" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C185" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D185" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F185" t="str">
         <f>CONCATENATE(B185,"-",C185,"-",D185,"-",E185)</f>
@@ -12263,19 +12246,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B186" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D186" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E186" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F186" t="str">
         <f>CONCATENATE(B186,"-",C186,"-",D186,"-",E186)</f>
@@ -12284,16 +12267,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B187" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C187" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E187" t="s">
         <v>4</v>
@@ -12305,16 +12288,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B188" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D188" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E188" t="s">
         <v>4</v>
@@ -12326,19 +12309,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B189" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D189" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E189" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F189" t="str">
         <f>CONCATENATE(B189,"-",C189,"-",D189,"-",E189)</f>
@@ -12347,19 +12330,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C190" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D190" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E190" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F190" t="str">
         <f>CONCATENATE(B190,"-",C190,"-",D190,"-",E190)</f>
@@ -12368,19 +12351,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B191" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C191" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D191" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E191" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F191" t="str">
         <f>CONCATENATE(B191,"-",C191,"-",D191,"-",E191)</f>
@@ -12389,16 +12372,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C192" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D192" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E192" t="s">
         <v>4</v>
@@ -12410,19 +12393,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B193" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C193" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D193" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E193" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F193" t="str">
         <f>CONCATENATE(B193,"-",C193,"-",D193,"-",E193)</f>

--- a/d3/cnr_d3.xlsx
+++ b/d3/cnr_d3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m176320/Documents/GitHub/sunyang_site/sunyangfu.github.io/d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15107114-8BFA-BF4E-893B-21D1C5EF281A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A3F31-3BBA-D54F-8A8B-E365BB332487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="1" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="502">
   <si>
     <t>Disease</t>
   </si>
@@ -81,6 +81,9 @@
     <t>FF69B4</t>
   </si>
   <si>
+    <t>FF7F50</t>
+  </si>
+  <si>
     <t>FF6347</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
     <t>FF8C00</t>
   </si>
   <si>
+    <t>FFA500</t>
+  </si>
+  <si>
     <t>FFD700</t>
   </si>
   <si>
@@ -166,9 +172,6 @@
   </si>
   <si>
     <t>7FFF00</t>
-  </si>
-  <si>
-    <t>7CFC00</t>
   </si>
   <si>
     <t>00FF00</t>
@@ -3216,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -3230,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3244,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3258,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3272,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3283,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3294,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3305,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3316,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3327,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3338,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3349,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3360,10 +3363,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3371,10 +3374,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3382,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3393,10 +3396,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3404,98 +3407,98 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3503,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3511,148 +3514,148 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>43</v>
+      <c r="C41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>57</v>
+      <c r="C42" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>45</v>
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>77</v>
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3671,12 +3674,6 @@
       <formula>NOT(ISERROR(SEARCH("machine learning",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C45" r:id="rId1" display="https://www.quackit.com/html/html_editors/scratchpad/?app=color_tester&amp;hexColor=00008B" xr:uid="{0991D586-4080-4647-B20B-049052978657}"/>
-    <hyperlink ref="C42" r:id="rId2" display="https://www.quackit.com/html/html_editors/scratchpad/?app=color_tester&amp;hexColor=20B2AA" xr:uid="{AB42DA65-FB44-634E-A243-AC242C224C92}"/>
-    <hyperlink ref="C41" r:id="rId3" display="https://www.quackit.com/html/html_editors/scratchpad/?app=color_tester&amp;hexColor=7CFC00" xr:uid="{6C3DB09F-F31A-A247-B6BD-0EBA0805F013}"/>
-    <hyperlink ref="C44" r:id="rId4" display="https://www.quackit.com/html/html_editors/scratchpad/?app=color_tester&amp;hexColor=32CD32" xr:uid="{B36C4519-92E0-1849-858A-FD50CE085D86}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3685,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F923B06-6A46-AE4D-AA45-C7438FDA473B}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3697,19 +3694,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
@@ -3718,40 +3715,40 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F65" si="0">CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <f t="shared" ref="F2:F44" si="0">CONCATENATE(A2,B2,C2,D2,E2)</f>
         <v>"Digestive": "#DDA0DD",</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
@@ -3760,19 +3757,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -3781,19 +3778,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -3802,19 +3799,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -3823,19 +3820,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -3844,19 +3841,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -3865,19 +3862,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3886,19 +3883,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -3907,19 +3904,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -3928,19 +3925,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -3949,19 +3946,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -3970,19 +3967,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -3991,19 +3988,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -4012,19 +4009,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -4033,19 +4030,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -4054,19 +4051,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -4075,19 +4072,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -4096,19 +4093,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -4117,19 +4114,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4138,19 +4135,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -4159,19 +4156,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -4180,19 +4177,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -4201,19 +4198,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -4222,19 +4219,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -4243,19 +4240,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -4264,19 +4261,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -4285,19 +4282,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -4306,19 +4303,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>27</v>
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -4327,19 +4324,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -4348,19 +4345,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -4369,19 +4366,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>30</v>
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -4390,19 +4387,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>31</v>
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -4411,19 +4408,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>31</v>
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -4432,19 +4429,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>32</v>
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -4453,19 +4450,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>33</v>
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -4474,19 +4471,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>34</v>
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -4495,19 +4492,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>35</v>
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -4516,460 +4513,460 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>43</v>
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F40" t="str">
-        <f>CONCATENATE(A40,B40,C40,D40,E40)</f>
-        <v>"Dictionary": "#7CFC00",</v>
+        <f t="shared" si="0"/>
+        <v>"Dictionary": "#FF7F50",</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>"Hybrid": "#20B2AA",</v>
+        <v>"Hybrid": "#FF6347",</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>67</v>
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>"ML": "#4682B4",</v>
+        <v>"ML": "#FF4500",</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>45</v>
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>"Rule": "#32CD32",</v>
+        <v>"Rule": "#FF8C00",</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>"Deep": "#00008B",</v>
+        <v>"Deep": "#FFA500",</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:F65" si="1">CONCATENATE(A47,B47,C47,D47,E47)</f>
         <v>"": "#FFE4E1",</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#9370DB",</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#20B2AA",</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#B0E0E6",</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#87CEFA",</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D52" s="7">
         <v>191970</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#191970",</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#9932CC",</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D54" s="7">
         <v>800080</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#800080",</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#DCDCDC",</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#8B0000",</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#D2691E",</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#FFFFE0",</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#E0FFFF",</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#FFDAB9",</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#6B8E23",</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#DC143C",</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#F4A460",</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#D2B48C",</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"": "#7B68EE",</v>
       </c>
       <c r="J65">
@@ -4978,370 +4975,370 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:F80" si="1">CONCATENATE(A66,B66,C66,D66,E66)</f>
+        <f t="shared" ref="F66:F80" si="2">CONCATENATE(A66,B66,C66,D66,E66)</f>
         <v>"": "#F0FFFF",</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D67" s="7">
         <v>808080</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#808080",</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#FFDEAD",</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#EEE8AA",</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#9ACD32",</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#1E90FF",</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#00008B",</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#DDA0DD",</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#7FFFD4",</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#3CB371",</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#F5DEB3",</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#EE82EE",</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#00FFFF",</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#40E0D0",</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"": "#FFE4C4",</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J87">
         <v>2</v>
@@ -5349,660 +5346,660 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D91" s="7">
         <v>663399</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D109" s="7">
         <v>696969</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E110" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C114" t="s">
-        <v>104</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="E114" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C116" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C117" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E117" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E121" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C122" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E122" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E123" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C125" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E125" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C126" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E126" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C127" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E127" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C128" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C129" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C130" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C131" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E131" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E132" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E133" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C134" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E134" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6032,10 +6029,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="10">
         <v>224255255</v>
@@ -6043,10 +6040,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="10">
         <v>175238238</v>
@@ -6054,10 +6051,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="10">
         <v>127255212</v>
@@ -6065,10 +6062,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10">
         <v>64224208</v>
@@ -6076,10 +6073,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10">
         <v>72209204</v>
@@ -6087,21 +6084,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="10">
         <v>95158160</v>
@@ -6109,10 +6106,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="10">
         <v>70130180</v>
@@ -6120,10 +6117,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="10">
         <v>176196222</v>
@@ -6131,10 +6128,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="10">
         <v>176224230</v>
@@ -6142,10 +6139,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="10">
         <v>173216230</v>
@@ -6153,10 +6150,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="10">
         <v>135206235</v>
@@ -6164,10 +6161,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10">
         <v>135206250</v>
@@ -6175,21 +6172,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="10">
         <v>30144255</v>
@@ -6197,10 +6194,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10">
         <v>100149237</v>
@@ -6208,7 +6205,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B17" s="11">
         <v>41690</v>
@@ -6219,32 +6216,32 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="10">
         <v>255255224</v>
@@ -6252,10 +6249,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="10">
         <v>255250205</v>
@@ -6263,10 +6260,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10">
         <v>250250210</v>
@@ -6274,10 +6271,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="10">
         <v>255239213</v>
@@ -6285,10 +6282,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10">
         <v>255228181</v>
@@ -6296,10 +6293,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="10">
         <v>255218185</v>
@@ -6307,10 +6304,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="10">
         <v>152251152</v>
@@ -6318,10 +6315,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="10">
         <v>144238144</v>
@@ -6329,32 +6326,32 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="10">
         <v>60179113</v>
@@ -6362,21 +6359,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="10">
         <v>216191216</v>
@@ -6384,10 +6381,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C33" s="10">
         <v>221160221</v>
@@ -6395,10 +6392,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" s="10">
         <v>238130238</v>
@@ -6406,10 +6403,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35" s="10">
         <v>218112214</v>
@@ -6417,35 +6414,35 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -7392,12 +7389,12 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -7405,7 +7402,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -7413,7 +7410,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -7421,7 +7418,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B7" s="4">
         <v>16</v>
@@ -7429,7 +7426,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -7437,7 +7434,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -7445,7 +7442,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -7453,7 +7450,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -7461,7 +7458,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -7469,7 +7466,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -7477,7 +7474,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -7485,7 +7482,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -7493,7 +7490,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -7501,7 +7498,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -7509,7 +7506,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -7517,7 +7514,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -7525,7 +7522,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -7533,7 +7530,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -7541,7 +7538,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -7549,7 +7546,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -7557,7 +7554,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -7565,7 +7562,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -7573,7 +7570,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -7581,7 +7578,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -7589,7 +7586,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -7597,7 +7594,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -7605,7 +7602,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -7613,7 +7610,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -7621,7 +7618,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -7629,7 +7626,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B33" s="4">
         <v>2</v>
@@ -7637,7 +7634,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -7645,7 +7642,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -7653,7 +7650,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -7661,7 +7658,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -7669,7 +7666,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -7677,7 +7674,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B39" s="4">
         <v>2</v>
@@ -7685,7 +7682,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
@@ -7693,7 +7690,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -7701,7 +7698,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
@@ -7709,7 +7706,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -7717,7 +7714,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
@@ -7725,7 +7722,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -7733,7 +7730,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -7741,7 +7738,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B47" s="4">
         <v>2</v>
@@ -7749,7 +7746,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -7757,7 +7754,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -7765,7 +7762,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -7773,7 +7770,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -7781,7 +7778,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -7789,7 +7786,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -7797,7 +7794,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -7805,7 +7802,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -7813,7 +7810,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B56" s="4">
         <v>2</v>
@@ -7821,7 +7818,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -7829,7 +7826,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B58" s="4">
         <v>3</v>
@@ -7837,7 +7834,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B59" s="4">
         <v>5</v>
@@ -7845,7 +7842,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B60" s="4">
         <v>4</v>
@@ -7853,7 +7850,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -7861,7 +7858,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -7869,7 +7866,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
@@ -7877,7 +7874,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -7885,7 +7882,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -7893,7 +7890,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -7901,7 +7898,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -7909,7 +7906,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B68" s="4">
         <v>2</v>
@@ -7917,7 +7914,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -7925,7 +7922,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -7933,7 +7930,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -7941,7 +7938,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -7949,7 +7946,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B73" s="4">
         <v>2</v>
@@ -7957,7 +7954,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -7965,7 +7962,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -7973,7 +7970,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B76" s="4">
         <v>3</v>
@@ -7981,7 +7978,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -7989,7 +7986,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B78" s="4">
         <v>6</v>
@@ -7997,7 +7994,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -8005,7 +8002,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B80" s="4">
         <v>2</v>
@@ -8013,7 +8010,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -8021,7 +8018,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -8029,7 +8026,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -8037,7 +8034,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -8045,7 +8042,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -8053,7 +8050,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B86" s="4">
         <v>2</v>
@@ -8061,7 +8058,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B87" s="4">
         <v>3</v>
@@ -8069,7 +8066,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -8077,7 +8074,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -8085,7 +8082,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -8093,7 +8090,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -8101,7 +8098,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -8109,7 +8106,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -8117,7 +8114,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -8125,7 +8122,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B95" s="4">
         <v>2</v>
@@ -8133,7 +8130,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B96" s="4">
         <v>5</v>
@@ -8141,7 +8138,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B97" s="4">
         <v>2</v>
@@ -8149,7 +8146,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -8157,7 +8154,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -8165,7 +8162,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -8173,7 +8170,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B101" s="4">
         <v>2</v>
@@ -8181,7 +8178,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
@@ -8189,7 +8186,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B103" s="4">
         <v>1</v>
@@ -8197,7 +8194,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
@@ -8205,7 +8202,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B105" s="4">
         <v>2</v>
@@ -8213,7 +8210,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B106" s="4">
         <v>1</v>
@@ -8221,7 +8218,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B107" s="4">
         <v>1</v>
@@ -8229,7 +8226,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B108" s="4">
         <v>3</v>
@@ -8237,7 +8234,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B109" s="4">
         <v>1</v>
@@ -8245,7 +8242,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B110" s="4">
         <v>4</v>
@@ -8253,7 +8250,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B111" s="4">
         <v>1</v>
@@ -8261,7 +8258,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B112" s="4">
         <v>2</v>
@@ -8269,7 +8266,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B113" s="4">
         <v>1</v>
@@ -8277,7 +8274,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B114" s="4">
         <v>1</v>
@@ -8285,7 +8282,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B115" s="4">
         <v>1</v>
@@ -8293,7 +8290,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
@@ -8301,7 +8298,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B117" s="4">
         <v>1</v>
@@ -8309,7 +8306,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B118" s="4">
         <v>1</v>
@@ -8317,7 +8314,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B119" s="4">
         <v>1</v>
@@ -8325,7 +8322,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B120" s="4">
         <v>1</v>
@@ -8362,16 +8359,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -8381,16 +8378,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -8402,16 +8399,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -8423,16 +8420,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -8444,16 +8441,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -8465,16 +8462,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -8487,16 +8484,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -8508,19 +8505,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" t="str">
         <f>CONCATENATE(B8,"-",C8,"-",D8,"-",E8)</f>
@@ -8529,19 +8526,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" t="str">
         <f>CONCATENATE(B9,"-",C9,"-",D9,"-",E9)</f>
@@ -8550,19 +8547,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10" t="str">
         <f>CONCATENATE(B10,"-",C10,"-",D10,"-",E10)</f>
@@ -8571,19 +8568,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F11" t="str">
         <f>CONCATENATE(B11,"-",C11,"-",D11,"-",E11)</f>
@@ -8592,19 +8589,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" t="str">
         <f>CONCATENATE(B12,"-",C12,"-",D12,"-",E12)</f>
@@ -8613,19 +8610,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" t="str">
         <f>CONCATENATE(B13,"-",C13,"-",D13,"-",E13)</f>
@@ -8634,19 +8631,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" t="str">
         <f>CONCATENATE(B14,"-",C14,"-",D14,"-",E14)</f>
@@ -8655,19 +8652,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" t="str">
         <f>CONCATENATE(B15,"-",C15,"-",D15,"-",E15)</f>
@@ -8676,19 +8673,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE(B16,"-",C16,"-",D16,"-",E16)</f>
@@ -8697,19 +8694,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" t="str">
         <f>CONCATENATE(B17,"-",C17,"-",D17,"-",E17)</f>
@@ -8718,19 +8715,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" t="str">
         <f>CONCATENATE(B18,"-",C18,"-",D18,"-",E18)</f>
@@ -8739,19 +8736,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" t="str">
         <f>CONCATENATE(B19,"-",C19,"-",D19,"-",E19)</f>
@@ -8760,19 +8757,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" t="str">
         <f>CONCATENATE(B20,"-",C20,"-",D20,"-",E20)</f>
@@ -8781,19 +8778,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" t="str">
         <f>CONCATENATE(B21,"-",C21,"-",D21,"-",E21)</f>
@@ -8802,19 +8799,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" t="str">
         <f>CONCATENATE(B22,"-",C22,"-",D22,"-",E22)</f>
@@ -8823,19 +8820,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" t="str">
         <f>CONCATENATE(B23,"-",C23,"-",D23,"-",E23)</f>
@@ -8844,19 +8841,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" t="str">
         <f>CONCATENATE(B24,"-",C24,"-",D24,"-",E24)</f>
@@ -8865,19 +8862,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" t="str">
         <f>CONCATENATE(B25,"-",C25,"-",D25,"-",E25)</f>
@@ -8886,19 +8883,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" t="str">
         <f>CONCATENATE(B26,"-",C26,"-",D26,"-",E26)</f>
@@ -8907,19 +8904,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" t="str">
         <f>CONCATENATE(B27,"-",C27,"-",D27,"-",E27)</f>
@@ -8928,19 +8925,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" t="str">
         <f>CONCATENATE(B28,"-",C28,"-",D28,"-",E28)</f>
@@ -8949,19 +8946,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F29" t="str">
         <f>CONCATENATE(B29,"-",C29,"-",D29,"-",E29)</f>
@@ -8970,16 +8967,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -8991,16 +8988,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -9012,16 +9009,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -9033,19 +9030,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" t="str">
         <f>CONCATENATE(B33,"-",C33,"-",D33,"-",E33)</f>
@@ -9054,19 +9051,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F34" t="str">
         <f>CONCATENATE(B34,"-",C34,"-",D34,"-",E34)</f>
@@ -9075,19 +9072,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F35" t="str">
         <f>CONCATENATE(B35,"-",C35,"-",D35,"-",E35)</f>
@@ -9096,16 +9093,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -9117,19 +9114,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" t="str">
         <f>CONCATENATE(B37,"-",C37,"-",D37,"-",E37)</f>
@@ -9138,16 +9135,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -9159,16 +9156,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -9180,19 +9177,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F40" t="str">
         <f>CONCATENATE(B40,"-",C40,"-",D40,"-",E40)</f>
@@ -9201,19 +9198,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" t="str">
         <f>CONCATENATE(B41,"-",C41,"-",D41,"-",E41)</f>
@@ -9222,19 +9219,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F42" t="str">
         <f>CONCATENATE(B42,"-",C42,"-",D42,"-",E42)</f>
@@ -9243,19 +9240,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F43" t="str">
         <f>CONCATENATE(B43,"-",C43,"-",D43,"-",E43)</f>
@@ -9264,19 +9261,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F44" t="str">
         <f>CONCATENATE(B44,"-",C44,"-",D44,"-",E44)</f>
@@ -9285,16 +9282,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -9306,16 +9303,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -9327,19 +9324,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F47" t="str">
         <f>CONCATENATE(B47,"-",C47,"-",D47,"-",E47)</f>
@@ -9348,16 +9345,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -9369,19 +9366,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F49" t="str">
         <f>CONCATENATE(B49,"-",C49,"-",D49,"-",E49)</f>
@@ -9390,19 +9387,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" t="str">
         <f>CONCATENATE(B50,"-",C50,"-",D50,"-",E50)</f>
@@ -9411,19 +9408,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" t="str">
         <f>CONCATENATE(B51,"-",C51,"-",D51,"-",E51)</f>
@@ -9432,19 +9429,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F52" t="str">
         <f>CONCATENATE(B52,"-",C52,"-",D52,"-",E52)</f>
@@ -9453,19 +9450,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53" t="str">
         <f>CONCATENATE(B53,"-",C53,"-",D53,"-",E53)</f>
@@ -9474,19 +9471,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F54" t="str">
         <f>CONCATENATE(B54,"-",C54,"-",D54,"-",E54)</f>
@@ -9495,19 +9492,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F55" t="str">
         <f>CONCATENATE(B55,"-",C55,"-",D55,"-",E55)</f>
@@ -9516,19 +9513,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F56" t="str">
         <f>CONCATENATE(B56,"-",C56,"-",D56,"-",E56)</f>
@@ -9537,19 +9534,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F57" t="str">
         <f>CONCATENATE(B57,"-",C57,"-",D57,"-",E57)</f>
@@ -9558,19 +9555,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F58" t="str">
         <f>CONCATENATE(B58,"-",C58,"-",D58,"-",E58)</f>
@@ -9579,16 +9576,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
@@ -9600,16 +9597,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -9621,16 +9618,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -9642,16 +9639,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -9663,19 +9660,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D63" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F63" t="str">
         <f>CONCATENATE(B63,"-",C63,"-",D63,"-",E63)</f>
@@ -9684,19 +9681,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F64" t="str">
         <f>CONCATENATE(B64,"-",C64,"-",D64,"-",E64)</f>
@@ -9705,19 +9702,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65" t="str">
         <f>CONCATENATE(B65,"-",C65,"-",D65,"-",E65)</f>
@@ -9726,19 +9723,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F66" t="str">
         <f>CONCATENATE(B66,"-",C66,"-",D66,"-",E66)</f>
@@ -9747,19 +9744,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" t="str">
         <f>CONCATENATE(B67,"-",C67,"-",D67,"-",E67)</f>
@@ -9768,19 +9765,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F68" t="str">
         <f>CONCATENATE(B68,"-",C68,"-",D68,"-",E68)</f>
@@ -9789,19 +9786,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F69" t="str">
         <f>CONCATENATE(B69,"-",C69,"-",D69,"-",E69)</f>
@@ -9810,19 +9807,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F70" t="str">
         <f>CONCATENATE(B70,"-",C70,"-",D70,"-",E70)</f>
@@ -9831,19 +9828,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F71" t="str">
         <f>CONCATENATE(B71,"-",C71,"-",D71,"-",E71)</f>
@@ -9852,16 +9849,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D72" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -9873,19 +9870,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F73" t="str">
         <f>CONCATENATE(B73,"-",C73,"-",D73,"-",E73)</f>
@@ -9894,19 +9891,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F74" t="str">
         <f>CONCATENATE(B74,"-",C74,"-",D74,"-",E74)</f>
@@ -9915,19 +9912,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F75" t="str">
         <f>CONCATENATE(B75,"-",C75,"-",D75,"-",E75)</f>
@@ -9936,19 +9933,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F76" t="str">
         <f>CONCATENATE(B76,"-",C76,"-",D76,"-",E76)</f>
@@ -9957,16 +9954,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -9978,19 +9975,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D78" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F78" t="str">
         <f>CONCATENATE(B78,"-",C78,"-",D78,"-",E78)</f>
@@ -9999,19 +9996,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D79" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F79" t="str">
         <f>CONCATENATE(B79,"-",C79,"-",D79,"-",E79)</f>
@@ -10020,19 +10017,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D80" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F80" t="str">
         <f>CONCATENATE(B80,"-",C80,"-",D80,"-",E80)</f>
@@ -10041,19 +10038,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D81" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F81" t="str">
         <f>CONCATENATE(B81,"-",C81,"-",D81,"-",E81)</f>
@@ -10062,19 +10059,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D82" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F82" t="str">
         <f>CONCATENATE(B82,"-",C82,"-",D82,"-",E82)</f>
@@ -10083,19 +10080,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F83" t="str">
         <f>CONCATENATE(B83,"-",C83,"-",D83,"-",E83)</f>
@@ -10104,19 +10101,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F84" t="str">
         <f>CONCATENATE(B84,"-",C84,"-",D84,"-",E84)</f>
@@ -10125,19 +10122,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D85" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F85" t="str">
         <f>CONCATENATE(B85,"-",C85,"-",D85,"-",E85)</f>
@@ -10146,19 +10143,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D86" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F86" t="str">
         <f>CONCATENATE(B86,"-",C86,"-",D86,"-",E86)</f>
@@ -10167,19 +10164,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D87" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F87" t="str">
         <f>CONCATENATE(B87,"-",C87,"-",D87,"-",E87)</f>
@@ -10188,16 +10185,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D88" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -10209,19 +10206,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F89" t="str">
         <f>CONCATENATE(B89,"-",C89,"-",D89,"-",E89)</f>
@@ -10230,16 +10227,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E90" t="s">
         <v>2</v>
@@ -10251,16 +10248,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -10272,16 +10269,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -10293,19 +10290,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE(B93,"-",C93,"-",D93,"-",E93)</f>
@@ -10314,19 +10311,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B94" t="s">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D94" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F94" t="str">
         <f>CONCATENATE(B94,"-",C94,"-",D94,"-",E94)</f>
@@ -10335,19 +10332,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D95" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F95" t="str">
         <f>CONCATENATE(B95,"-",C95,"-",D95,"-",E95)</f>
@@ -10356,19 +10353,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D96" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F96" t="str">
         <f>CONCATENATE(B96,"-",C96,"-",D96,"-",E96)</f>
@@ -10377,19 +10374,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D97" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F97" t="str">
         <f>CONCATENATE(B97,"-",C97,"-",D97,"-",E97)</f>
@@ -10398,19 +10395,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D98" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F98" t="str">
         <f>CONCATENATE(B98,"-",C98,"-",D98,"-",E98)</f>
@@ -10419,19 +10416,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D99" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F99" t="str">
         <f>CONCATENATE(B99,"-",C99,"-",D99,"-",E99)</f>
@@ -10440,19 +10437,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F100" t="str">
         <f>CONCATENATE(B100,"-",C100,"-",D100,"-",E100)</f>
@@ -10461,19 +10458,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B101" t="s">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D101" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F101" t="str">
         <f>CONCATENATE(B101,"-",C101,"-",D101,"-",E101)</f>
@@ -10482,19 +10479,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D102" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F102" t="str">
         <f>CONCATENATE(B102,"-",C102,"-",D102,"-",E102)</f>
@@ -10503,16 +10500,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D103" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -10524,19 +10521,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D104" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F104" t="str">
         <f>CONCATENATE(B104,"-",C104,"-",D104,"-",E104)</f>
@@ -10545,16 +10542,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
@@ -10566,19 +10563,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D106" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F106" t="str">
         <f>CONCATENATE(B106,"-",C106,"-",D106,"-",E106)</f>
@@ -10587,16 +10584,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D107" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
@@ -10608,19 +10605,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D108" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F108" t="str">
         <f>CONCATENATE(B108,"-",C108,"-",D108,"-",E108)</f>
@@ -10629,19 +10626,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D109" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F109" t="str">
         <f>CONCATENATE(B109,"-",C109,"-",D109,"-",E109)</f>
@@ -10650,19 +10647,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D110" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E110" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F110" t="str">
         <f>CONCATENATE(B110,"-",C110,"-",D110,"-",E110)</f>
@@ -10671,19 +10668,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D111" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F111" t="str">
         <f>CONCATENATE(B111,"-",C111,"-",D111,"-",E111)</f>
@@ -10692,19 +10689,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D112" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E112" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F112" t="str">
         <f>CONCATENATE(B112,"-",C112,"-",D112,"-",E112)</f>
@@ -10713,19 +10710,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E113" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F113" t="str">
         <f>CONCATENATE(B113,"-",C113,"-",D113,"-",E113)</f>
@@ -10734,19 +10731,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F114" t="str">
         <f>CONCATENATE(B114,"-",C114,"-",D114,"-",E114)</f>
@@ -10755,19 +10752,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E115" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F115" t="str">
         <f>CONCATENATE(B115,"-",C115,"-",D115,"-",E115)</f>
@@ -10776,19 +10773,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E116" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F116" t="str">
         <f>CONCATENATE(B116,"-",C116,"-",D116,"-",E116)</f>
@@ -10797,19 +10794,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E117" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F117" t="str">
         <f>CONCATENATE(B117,"-",C117,"-",D117,"-",E117)</f>
@@ -10818,16 +10815,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
@@ -10839,16 +10836,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D119" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
@@ -10860,16 +10857,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -10881,16 +10878,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
@@ -10902,19 +10899,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D122" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E122" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F122" t="str">
         <f>CONCATENATE(B122,"-",C122,"-",D122,"-",E122)</f>
@@ -10923,19 +10920,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E123" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F123" t="str">
         <f>CONCATENATE(B123,"-",C123,"-",D123,"-",E123)</f>
@@ -10944,19 +10941,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E124" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F124" t="str">
         <f>CONCATENATE(B124,"-",C124,"-",D124,"-",E124)</f>
@@ -10965,19 +10962,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E125" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F125" t="str">
         <f>CONCATENATE(B125,"-",C125,"-",D125,"-",E125)</f>
@@ -10986,19 +10983,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D126" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E126" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F126" t="str">
         <f>CONCATENATE(B126,"-",C126,"-",D126,"-",E126)</f>
@@ -11007,19 +11004,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D127" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E127" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F127" t="str">
         <f>CONCATENATE(B127,"-",C127,"-",D127,"-",E127)</f>
@@ -11028,19 +11025,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E128" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F128" t="str">
         <f>CONCATENATE(B128,"-",C128,"-",D128,"-",E128)</f>
@@ -11049,16 +11046,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D129" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -11070,19 +11067,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D130" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E130" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F130" t="str">
         <f>CONCATENATE(B130,"-",C130,"-",D130,"-",E130)</f>
@@ -11091,19 +11088,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D131" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E131" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F131" t="str">
         <f>CONCATENATE(B131,"-",C131,"-",D131,"-",E131)</f>
@@ -11112,19 +11109,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D132" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E132" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F132" t="str">
         <f>CONCATENATE(B132,"-",C132,"-",D132,"-",E132)</f>
@@ -11133,16 +11130,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D133" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E133" t="s">
         <v>4</v>
@@ -11154,19 +11151,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D134" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E134" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F134" t="str">
         <f>CONCATENATE(B134,"-",C134,"-",D134,"-",E134)</f>
@@ -11175,19 +11172,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D135" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E135" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F135" t="str">
         <f>CONCATENATE(B135,"-",C135,"-",D135,"-",E135)</f>
@@ -11196,16 +11193,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -11217,16 +11214,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D137" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E137" t="s">
         <v>4</v>
@@ -11238,19 +11235,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E138" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F138" t="str">
         <f>CONCATENATE(B138,"-",C138,"-",D138,"-",E138)</f>
@@ -11259,16 +11256,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D139" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E139" t="s">
         <v>4</v>
@@ -11280,19 +11277,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B140" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C140" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D140" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E140" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F140" t="str">
         <f>CONCATENATE(B140,"-",C140,"-",D140,"-",E140)</f>
@@ -11301,19 +11298,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B141" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D141" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F141" t="str">
         <f>CONCATENATE(B141,"-",C141,"-",D141,"-",E141)</f>
@@ -11322,16 +11319,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D142" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E142" t="s">
         <v>4</v>
@@ -11343,19 +11340,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B143" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C143" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D143" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E143" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F143" t="str">
         <f>CONCATENATE(B143,"-",C143,"-",D143,"-",E143)</f>
@@ -11364,16 +11361,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C144" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D144" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E144" t="s">
         <v>4</v>
@@ -11385,16 +11382,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B145" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C145" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D145" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E145" t="s">
         <v>4</v>
@@ -11406,19 +11403,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C146" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D146" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E146" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F146" t="str">
         <f>CONCATENATE(B146,"-",C146,"-",D146,"-",E146)</f>
@@ -11427,19 +11424,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E147" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F147" t="str">
         <f>CONCATENATE(B147,"-",C147,"-",D147,"-",E147)</f>
@@ -11448,19 +11445,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" t="s">
+        <v>310</v>
+      </c>
+      <c r="D148" t="s">
+        <v>327</v>
+      </c>
+      <c r="E148" t="s">
         <v>109</v>
-      </c>
-      <c r="C148" t="s">
-        <v>309</v>
-      </c>
-      <c r="D148" t="s">
-        <v>326</v>
-      </c>
-      <c r="E148" t="s">
-        <v>108</v>
       </c>
       <c r="F148" t="str">
         <f>CONCATENATE(B148,"-",C148,"-",D148,"-",E148)</f>
@@ -11469,19 +11466,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D149" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E149" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F149" t="str">
         <f>CONCATENATE(B149,"-",C149,"-",D149,"-",E149)</f>
@@ -11490,19 +11487,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B150" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C150" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D150" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E150" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F150" t="str">
         <f>CONCATENATE(B150,"-",C150,"-",D150,"-",E150)</f>
@@ -11511,16 +11508,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C151" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D151" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E151" t="s">
         <v>4</v>
@@ -11532,16 +11529,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C152" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D152" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E152" t="s">
         <v>4</v>
@@ -11553,16 +11550,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B153" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C153" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D153" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E153" t="s">
         <v>4</v>
@@ -11574,16 +11571,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B154" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C154" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D154" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E154" t="s">
         <v>4</v>
@@ -11595,16 +11592,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B155" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D155" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E155" t="s">
         <v>4</v>
@@ -11616,19 +11613,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B156" t="s">
+        <v>110</v>
+      </c>
+      <c r="C156" t="s">
+        <v>323</v>
+      </c>
+      <c r="D156" t="s">
+        <v>328</v>
+      </c>
+      <c r="E156" t="s">
         <v>109</v>
-      </c>
-      <c r="C156" t="s">
-        <v>322</v>
-      </c>
-      <c r="D156" t="s">
-        <v>327</v>
-      </c>
-      <c r="E156" t="s">
-        <v>108</v>
       </c>
       <c r="F156" t="str">
         <f>CONCATENATE(B156,"-",C156,"-",D156,"-",E156)</f>
@@ -11637,19 +11634,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B157" t="s">
+        <v>110</v>
+      </c>
+      <c r="C157" t="s">
+        <v>323</v>
+      </c>
+      <c r="D157" t="s">
+        <v>328</v>
+      </c>
+      <c r="E157" t="s">
         <v>109</v>
-      </c>
-      <c r="C157" t="s">
-        <v>322</v>
-      </c>
-      <c r="D157" t="s">
-        <v>327</v>
-      </c>
-      <c r="E157" t="s">
-        <v>108</v>
       </c>
       <c r="F157" t="str">
         <f>CONCATENATE(B157,"-",C157,"-",D157,"-",E157)</f>
@@ -11658,19 +11655,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B158" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C158" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D158" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E158" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F158" t="str">
         <f>CONCATENATE(B158,"-",C158,"-",D158,"-",E158)</f>
@@ -11679,19 +11676,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B159" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D159" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E159" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F159" t="str">
         <f>CONCATENATE(B159,"-",C159,"-",D159,"-",E159)</f>
@@ -11700,16 +11697,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B160" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C160" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D160" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
@@ -11721,16 +11718,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B161" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C161" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D161" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E161" t="s">
         <v>4</v>
@@ -11742,16 +11739,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B162" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C162" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E162" t="s">
         <v>4</v>
@@ -11763,16 +11760,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B163" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C163" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D163" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E163" t="s">
         <v>4</v>
@@ -11784,19 +11781,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B164" t="s">
+        <v>110</v>
+      </c>
+      <c r="C164" t="s">
+        <v>310</v>
+      </c>
+      <c r="D164" t="s">
+        <v>328</v>
+      </c>
+      <c r="E164" t="s">
         <v>109</v>
-      </c>
-      <c r="C164" t="s">
-        <v>309</v>
-      </c>
-      <c r="D164" t="s">
-        <v>327</v>
-      </c>
-      <c r="E164" t="s">
-        <v>108</v>
       </c>
       <c r="F164" t="str">
         <f>CONCATENATE(B164,"-",C164,"-",D164,"-",E164)</f>
@@ -11805,19 +11802,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B165" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C165" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D165" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E165" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F165" t="str">
         <f>CONCATENATE(B165,"-",C165,"-",D165,"-",E165)</f>
@@ -11826,19 +11823,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B166" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D166" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E166" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F166" t="str">
         <f>CONCATENATE(B166,"-",C166,"-",D166,"-",E166)</f>
@@ -11847,19 +11844,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B167" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E167" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F167" t="str">
         <f>CONCATENATE(B167,"-",C167,"-",D167,"-",E167)</f>
@@ -11868,19 +11865,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B168" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C168" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D168" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E168" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F168" t="str">
         <f>CONCATENATE(B168,"-",C168,"-",D168,"-",E168)</f>
@@ -11889,19 +11886,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C169" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D169" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E169" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F169" t="str">
         <f>CONCATENATE(B169,"-",C169,"-",D169,"-",E169)</f>
@@ -11910,19 +11907,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B170" t="s">
+        <v>110</v>
+      </c>
+      <c r="C170" t="s">
+        <v>308</v>
+      </c>
+      <c r="D170" t="s">
+        <v>328</v>
+      </c>
+      <c r="E170" t="s">
         <v>109</v>
-      </c>
-      <c r="C170" t="s">
-        <v>307</v>
-      </c>
-      <c r="D170" t="s">
-        <v>327</v>
-      </c>
-      <c r="E170" t="s">
-        <v>108</v>
       </c>
       <c r="F170" t="str">
         <f>CONCATENATE(B170,"-",C170,"-",D170,"-",E170)</f>
@@ -11931,19 +11928,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B171" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C171" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D171" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E171" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F171" t="str">
         <f>CONCATENATE(B171,"-",C171,"-",D171,"-",E171)</f>
@@ -11952,16 +11949,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B172" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C172" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D172" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E172" t="s">
         <v>2</v>
@@ -11973,16 +11970,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C173" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D173" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E173" t="s">
         <v>4</v>
@@ -11994,19 +11991,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B174" t="s">
+        <v>110</v>
+      </c>
+      <c r="C174" t="s">
+        <v>307</v>
+      </c>
+      <c r="D174" t="s">
+        <v>328</v>
+      </c>
+      <c r="E174" t="s">
         <v>109</v>
-      </c>
-      <c r="C174" t="s">
-        <v>306</v>
-      </c>
-      <c r="D174" t="s">
-        <v>327</v>
-      </c>
-      <c r="E174" t="s">
-        <v>108</v>
       </c>
       <c r="F174" t="str">
         <f>CONCATENATE(B174,"-",C174,"-",D174,"-",E174)</f>
@@ -12015,16 +12012,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C175" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D175" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E175" t="s">
         <v>4</v>
@@ -12036,19 +12033,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B176" t="s">
+        <v>110</v>
+      </c>
+      <c r="C176" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" t="s">
+        <v>329</v>
+      </c>
+      <c r="E176" t="s">
         <v>109</v>
-      </c>
-      <c r="C176" t="s">
-        <v>322</v>
-      </c>
-      <c r="D176" t="s">
-        <v>328</v>
-      </c>
-      <c r="E176" t="s">
-        <v>108</v>
       </c>
       <c r="F176" t="str">
         <f>CONCATENATE(B176,"-",C176,"-",D176,"-",E176)</f>
@@ -12057,19 +12054,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B177" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C177" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D177" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E177" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F177" t="str">
         <f>CONCATENATE(B177,"-",C177,"-",D177,"-",E177)</f>
@@ -12078,19 +12075,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B178" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D178" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E178" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F178" t="str">
         <f>CONCATENATE(B178,"-",C178,"-",D178,"-",E178)</f>
@@ -12099,16 +12096,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B179" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C179" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D179" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E179" t="s">
         <v>4</v>
@@ -12120,19 +12117,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B180" t="s">
+        <v>110</v>
+      </c>
+      <c r="C180" t="s">
+        <v>310</v>
+      </c>
+      <c r="D180" t="s">
+        <v>329</v>
+      </c>
+      <c r="E180" t="s">
         <v>109</v>
-      </c>
-      <c r="C180" t="s">
-        <v>309</v>
-      </c>
-      <c r="D180" t="s">
-        <v>328</v>
-      </c>
-      <c r="E180" t="s">
-        <v>108</v>
       </c>
       <c r="F180" t="str">
         <f>CONCATENATE(B180,"-",C180,"-",D180,"-",E180)</f>
@@ -12141,19 +12138,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B181" t="s">
+        <v>110</v>
+      </c>
+      <c r="C181" t="s">
+        <v>310</v>
+      </c>
+      <c r="D181" t="s">
+        <v>329</v>
+      </c>
+      <c r="E181" t="s">
         <v>109</v>
-      </c>
-      <c r="C181" t="s">
-        <v>309</v>
-      </c>
-      <c r="D181" t="s">
-        <v>328</v>
-      </c>
-      <c r="E181" t="s">
-        <v>108</v>
       </c>
       <c r="F181" t="str">
         <f>CONCATENATE(B181,"-",C181,"-",D181,"-",E181)</f>
@@ -12162,19 +12159,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B182" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D182" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E182" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F182" t="str">
         <f>CONCATENATE(B182,"-",C182,"-",D182,"-",E182)</f>
@@ -12183,19 +12180,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B183" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C183" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D183" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E183" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F183" t="str">
         <f>CONCATENATE(B183,"-",C183,"-",D183,"-",E183)</f>
@@ -12204,16 +12201,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D184" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E184" t="s">
         <v>2</v>
@@ -12225,19 +12222,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B185" t="s">
+        <v>110</v>
+      </c>
+      <c r="C185" t="s">
+        <v>323</v>
+      </c>
+      <c r="D185" t="s">
+        <v>334</v>
+      </c>
+      <c r="E185" t="s">
         <v>109</v>
-      </c>
-      <c r="C185" t="s">
-        <v>322</v>
-      </c>
-      <c r="D185" t="s">
-        <v>333</v>
-      </c>
-      <c r="E185" t="s">
-        <v>108</v>
       </c>
       <c r="F185" t="str">
         <f>CONCATENATE(B185,"-",C185,"-",D185,"-",E185)</f>
@@ -12246,19 +12243,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B186" t="s">
+        <v>110</v>
+      </c>
+      <c r="C186" t="s">
+        <v>310</v>
+      </c>
+      <c r="D186" t="s">
+        <v>334</v>
+      </c>
+      <c r="E186" t="s">
         <v>109</v>
-      </c>
-      <c r="C186" t="s">
-        <v>309</v>
-      </c>
-      <c r="D186" t="s">
-        <v>333</v>
-      </c>
-      <c r="E186" t="s">
-        <v>108</v>
       </c>
       <c r="F186" t="str">
         <f>CONCATENATE(B186,"-",C186,"-",D186,"-",E186)</f>
@@ -12267,16 +12264,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B187" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C187" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D187" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E187" t="s">
         <v>4</v>
@@ -12288,16 +12285,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D188" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E188" t="s">
         <v>4</v>
@@ -12309,19 +12306,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B189" t="s">
+        <v>110</v>
+      </c>
+      <c r="C189" t="s">
+        <v>323</v>
+      </c>
+      <c r="D189" t="s">
+        <v>336</v>
+      </c>
+      <c r="E189" t="s">
         <v>109</v>
-      </c>
-      <c r="C189" t="s">
-        <v>322</v>
-      </c>
-      <c r="D189" t="s">
-        <v>335</v>
-      </c>
-      <c r="E189" t="s">
-        <v>108</v>
       </c>
       <c r="F189" t="str">
         <f>CONCATENATE(B189,"-",C189,"-",D189,"-",E189)</f>
@@ -12330,19 +12327,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C190" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D190" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E190" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F190" t="str">
         <f>CONCATENATE(B190,"-",C190,"-",D190,"-",E190)</f>
@@ -12351,19 +12348,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C191" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D191" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E191" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F191" t="str">
         <f>CONCATENATE(B191,"-",C191,"-",D191,"-",E191)</f>
@@ -12372,16 +12369,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C192" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D192" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E192" t="s">
         <v>4</v>
@@ -12393,19 +12390,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B193" t="s">
+        <v>110</v>
+      </c>
+      <c r="C193" t="s">
+        <v>308</v>
+      </c>
+      <c r="D193" t="s">
+        <v>336</v>
+      </c>
+      <c r="E193" t="s">
         <v>109</v>
-      </c>
-      <c r="C193" t="s">
-        <v>307</v>
-      </c>
-      <c r="D193" t="s">
-        <v>335</v>
-      </c>
-      <c r="E193" t="s">
-        <v>108</v>
       </c>
       <c r="F193" t="str">
         <f>CONCATENATE(B193,"-",C193,"-",D193,"-",E193)</f>

--- a/d3/cnr_d3.xlsx
+++ b/d3/cnr_d3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m176320/Documents/GitHub/sunyang_site/sunyangfu.github.io/d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A3F31-3BBA-D54F-8A8B-E365BB332487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E532244-AC81-5A47-A3D2-FA7C9AD7799F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="1" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="505">
   <si>
     <t>Disease</t>
   </si>
@@ -1543,6 +1543,15 @@
   </si>
   <si>
     <t>186,85,211</t>
+  </si>
+  <si>
+    <t>Aqua</t>
+  </si>
+  <si>
+    <t>0,255,255</t>
+  </si>
+  <si>
+    <t>Cyan</t>
   </si>
 </sst>
 </file>
@@ -3682,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F923B06-6A46-AE4D-AA45-C7438FDA473B}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4028,7 +4037,7 @@
         <v>"Symptoms": "#87CEEB",</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>"Endocrine": "#87CEEB",</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>"Social_Behavior": "#F4A460",</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -4091,7 +4100,7 @@
         <v>"Symptoms": "#F4A460",</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -4112,7 +4121,7 @@
         <v>"Respiratory": "#F4A460",</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -4133,7 +4142,7 @@
         <v>"Endocrine": "#F4A460",</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -4154,7 +4163,7 @@
         <v>"Patient_management": "#90EE90",</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -4175,7 +4184,7 @@
         <v>"Measurement": "#90EE90",</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -4196,7 +4205,7 @@
         <v>"Quality_control": "#90EE90",</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -4217,7 +4226,7 @@
         <v>"Data_privacy": "#90EE90",</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -4238,7 +4247,7 @@
         <v>"Disease": "#DDA0DD",</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>"Drug": "#87CEEB",</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>"SocialHealth": "#F4A460",</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -4301,7 +4310,7 @@
         <v>"Workflow": "#90EE90",</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -4312,17 +4321,26 @@
         <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>106</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>"ClinicalNotes": "#D8BFD8",</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"ClinicalNotes": "#00FFFF",</v>
+      </c>
+      <c r="G30" t="s">
+        <v>502</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -4333,17 +4351,26 @@
         <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
         <v>106</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>"DischargeSummaries": "#DDA0DD",</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"DischargeSummaries": "#00FFFF",</v>
+      </c>
+      <c r="G31" t="s">
+        <v>504</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -4354,17 +4381,26 @@
         <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>"EchoReports": "#EE82EE",</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"EchoReports": "#E0FFFF",</v>
+      </c>
+      <c r="G32" t="s">
+        <v>455</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="9">
+        <v>224255255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -4375,17 +4411,26 @@
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
         <v>106</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>"EncounterNotes": "#DA70D6",</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"EncounterNotes": "#AFEEEE",</v>
+      </c>
+      <c r="G33" t="s">
+        <v>456</v>
+      </c>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="9">
+        <v>175238238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -4396,17 +4441,26 @@
         <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
         <v>106</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>"OperativeReport": "#FF00FF",</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"OperativeReport": "#7FFFD4",</v>
+      </c>
+      <c r="G34" t="s">
+        <v>457</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="9">
+        <v>127255212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -4417,17 +4471,26 @@
         <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
         <v>106</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>"PathologyReport": "#FF00FF",</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"PathologyReport": "#40E0D0",</v>
+      </c>
+      <c r="G35" t="s">
+        <v>458</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="9">
+        <v>64224208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -4438,17 +4501,26 @@
         <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>"PsychiatricNotes": "#BA55D3",</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"PsychiatricNotes": "#48D1CC",</v>
+      </c>
+      <c r="G36" t="s">
+        <v>459</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="9">
+        <v>72209204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4459,17 +4531,26 @@
         <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
         <v>106</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>"RadiologyReport": "#9370DB",</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"RadiologyReport": "#00CED1",</v>
+      </c>
+      <c r="G37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -4480,17 +4561,26 @@
         <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
         <v>106</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>"MicrobiologyReports": "#8A2BE2",</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"MicrobiologyReports": "#5F9EA0",</v>
+      </c>
+      <c r="G38" t="s">
+        <v>462</v>
+      </c>
+      <c r="H38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="9">
+        <v>95158160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -4501,17 +4591,26 @@
         <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
         <v>106</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>"Claims": "#9400D3",</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"Claims": "#4682B4",</v>
+      </c>
+      <c r="G39" t="s">
+        <v>463</v>
+      </c>
+      <c r="H39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="9">
+        <v>70130180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -4522,17 +4621,17 @@
         <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
         <v>106</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>"Dictionary": "#FF7F50",</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"Dictionary": "#98FB98",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -4543,17 +4642,17 @@
         <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
         <v>106</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>"Hybrid": "#FF6347",</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"Hybrid": "#90EE90",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -4564,17 +4663,17 @@
         <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
         <v>106</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>"ML": "#FF4500",</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"ML": "#00FA9A",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -4585,17 +4684,17 @@
         <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
         <v>106</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>"Rule": "#FF8C00",</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"Rule": "#00FF7F",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4606,29 +4705,31 @@
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
         <v>106</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>"Deep": "#FFA500",</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>"Deep": "#3CB371",</v>
+      </c>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>104</v>
       </c>
       <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -4646,7 +4747,7 @@
         <v>"": "#FFE4E1",</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -4663,6 +4764,7 @@
         <f t="shared" si="1"/>
         <v>"": "#9370DB",</v>
       </c>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">

--- a/d3/cnr_d3.xlsx
+++ b/d3/cnr_d3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m176320/Documents/GitHub/sunyang_site/sunyangfu.github.io/d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E532244-AC81-5A47-A3D2-FA7C9AD7799F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8F665-7057-D142-BA9B-6E243BB39A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="1" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="502">
   <si>
     <t>Disease</t>
   </si>
@@ -1543,15 +1543,6 @@
   </si>
   <si>
     <t>186,85,211</t>
-  </si>
-  <si>
-    <t>Aqua</t>
-  </si>
-  <si>
-    <t>0,255,255</t>
-  </si>
-  <si>
-    <t>Cyan</t>
   </si>
 </sst>
 </file>
@@ -3691,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F923B06-6A46-AE4D-AA45-C7438FDA473B}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4321,23 +4312,23 @@
         <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>106</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>"ClinicalNotes": "#00FFFF",</v>
+        <v>"ClinicalNotes": "#B0C4DE",</v>
       </c>
       <c r="G30" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" t="s">
-        <v>503</v>
+        <v>69</v>
+      </c>
+      <c r="I30" s="9">
+        <v>176196222</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -4351,23 +4342,23 @@
         <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>106</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>"DischargeSummaries": "#00FFFF",</v>
+        <v>"DischargeSummaries": "#B0E0E6",</v>
       </c>
       <c r="G31" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" t="s">
-        <v>503</v>
+        <v>70</v>
+      </c>
+      <c r="I31" s="9">
+        <v>176224230</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -4381,23 +4372,23 @@
         <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>"EchoReports": "#E0FFFF",</v>
+        <v>"EchoReports": "#ADD8E6",</v>
       </c>
       <c r="G32" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9">
-        <v>224255255</v>
+        <v>173216230</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -4411,23 +4402,23 @@
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
         <v>106</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>"EncounterNotes": "#AFEEEE",</v>
+        <v>"EncounterNotes": "#87CEEB",</v>
       </c>
       <c r="G33" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I33" s="9">
-        <v>175238238</v>
+        <v>135206235</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -4441,23 +4432,23 @@
         <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
         <v>106</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>"OperativeReport": "#7FFFD4",</v>
+        <v>"OperativeReport": "#87CEFA",</v>
       </c>
       <c r="G34" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9">
-        <v>127255212</v>
+        <v>135206250</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -4471,24 +4462,16 @@
         <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
         <v>106</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>"PathologyReport": "#40E0D0",</v>
-      </c>
-      <c r="G35" t="s">
-        <v>458</v>
-      </c>
-      <c r="H35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="9">
-        <v>64224208</v>
-      </c>
+        <v>"PathologyReport": "#B0C4DE",</v>
+      </c>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -4501,24 +4484,16 @@
         <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>"PsychiatricNotes": "#48D1CC",</v>
-      </c>
-      <c r="G36" t="s">
-        <v>459</v>
-      </c>
-      <c r="H36" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="9">
-        <v>72209204</v>
-      </c>
+        <v>"PsychiatricNotes": "#B0E0E6",</v>
+      </c>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -4531,23 +4506,14 @@
         <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
         <v>106</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>"RadiologyReport": "#00CED1",</v>
-      </c>
-      <c r="G37" t="s">
-        <v>460</v>
-      </c>
-      <c r="H37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" t="s">
-        <v>461</v>
+        <v>"RadiologyReport": "#ADD8E6",</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -4561,24 +4527,16 @@
         <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
         <v>106</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>"MicrobiologyReports": "#5F9EA0",</v>
-      </c>
-      <c r="G38" t="s">
-        <v>462</v>
-      </c>
-      <c r="H38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="9">
-        <v>95158160</v>
-      </c>
+        <v>"MicrobiologyReports": "#87CEEB",</v>
+      </c>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -4591,24 +4549,16 @@
         <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
         <v>106</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>"Claims": "#4682B4",</v>
-      </c>
-      <c r="G39" t="s">
-        <v>463</v>
-      </c>
-      <c r="H39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="9">
-        <v>70130180</v>
-      </c>
+        <v>"Claims": "#87CEFA",</v>
+      </c>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -4663,14 +4613,14 @@
         <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
         <v>106</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>"ML": "#00FA9A",</v>
+        <v>"ML": "#87CEFA",</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -4705,14 +4655,14 @@
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
         <v>106</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>"Deep": "#3CB371",</v>
+        <v>"Deep": "#87CEEB",</v>
       </c>
       <c r="I44" s="9"/>
     </row>

--- a/d3/cnr_d3.xlsx
+++ b/d3/cnr_d3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m176320/Documents/GitHub/sunyang_site/sunyangfu.github.io/d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8F665-7057-D142-BA9B-6E243BB39A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB1CAB-00B9-214B-A4A4-D943279D66B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="26440" windowHeight="15040" activeTab="1" xr2:uid="{65351DCB-F8DB-414C-8DCB-320BDCF01342}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="502">
   <si>
     <t>Disease</t>
   </si>
@@ -3682,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F923B06-6A46-AE4D-AA45-C7438FDA473B}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4321,15 +4321,7 @@
         <f t="shared" si="0"/>
         <v>"ClinicalNotes": "#B0C4DE",</v>
       </c>
-      <c r="G30" t="s">
-        <v>464</v>
-      </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="9">
-        <v>176196222</v>
-      </c>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -4351,15 +4343,7 @@
         <f t="shared" si="0"/>
         <v>"DischargeSummaries": "#B0E0E6",</v>
       </c>
-      <c r="G31" t="s">
-        <v>465</v>
-      </c>
-      <c r="H31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="9">
-        <v>176224230</v>
-      </c>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -4381,15 +4365,7 @@
         <f t="shared" si="0"/>
         <v>"EchoReports": "#ADD8E6",</v>
       </c>
-      <c r="G32" t="s">
-        <v>466</v>
-      </c>
-      <c r="H32" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="9">
-        <v>173216230</v>
-      </c>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -4411,15 +4387,7 @@
         <f t="shared" si="0"/>
         <v>"EncounterNotes": "#87CEEB",</v>
       </c>
-      <c r="G33" t="s">
-        <v>467</v>
-      </c>
-      <c r="H33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="9">
-        <v>135206235</v>
-      </c>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -4441,15 +4409,7 @@
         <f t="shared" si="0"/>
         <v>"OperativeReport": "#87CEFA",</v>
       </c>
-      <c r="G34" t="s">
-        <v>468</v>
-      </c>
-      <c r="H34" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="9">
-        <v>135206250</v>
-      </c>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
